--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail0 Features.xlsx
@@ -4911,7 +4911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4922,29 +4922,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4965,115 +4963,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5090,72 +5078,66 @@
         <v>1.939970687170774e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.596565731348836</v>
+        <v>1.271104858773782e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.54124770789242</v>
+        <v>3.95220238662318e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.271104858773782e-06</v>
+        <v>-0.1016929226195325</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.95220238662318e-06</v>
+        <v>0.3061728048729291</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1016929226195325</v>
+        <v>0.1038333037342919</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3061728048729291</v>
+        <v>1.877461103999869</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1038333037342919</v>
+        <v>1.736482039987527</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.860992178754851</v>
+        <v>4.130951905484075</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.736482039987527</v>
+        <v>1.209620154278798e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.130951905484075</v>
+        <v>184938061.800752</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.209620154278798e-15</v>
+        <v>6.468762413177941e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>184938061.800752</v>
+        <v>41.37153339387857</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.468762413177941e-07</v>
+        <v>0.0001491723408925216</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>41.37153339387857</v>
+        <v>9.991949768064714</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001491723408925216</v>
+        <v>1.115173558297248</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.991949768064714</v>
+        <v>0.01489322631769954</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.115173558297248</v>
+        <v>2.84084506035366</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01489322631769954</v>
+        <v>0.9613761311299294</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.84084506035366</v>
+        <v>1.489342312710803</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9613761311299294</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.489342312710803</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3102803366520256</v>
       </c>
     </row>
@@ -5170,72 +5152,66 @@
         <v>1.438695813949724e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.500721840062137</v>
+        <v>9.419763927515388e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.94424828530761</v>
+        <v>3.935418345888214e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.419763927515388e-07</v>
+        <v>-0.09862745885219137</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.935418345888214e-06</v>
+        <v>0.302215781468393</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09862745885219137</v>
+        <v>0.1008192945596818</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.302215781468393</v>
+        <v>1.887075724777615</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1008192945596818</v>
+        <v>1.818005432411336</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.871357901153704</v>
+        <v>3.780150504518681</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.818005432411336</v>
+        <v>1.060289817657448e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.780150504518681</v>
+        <v>215781114.0126863</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.060289817657448e-15</v>
+        <v>5.55432029265348e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>215781114.0126863</v>
+        <v>49.36867285614621</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.55432029265348e-07</v>
+        <v>0.0001297147477931442</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>49.36867285614621</v>
+        <v>8.820989378172959</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001297147477931442</v>
+        <v>1.255905336911057</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.820989378172959</v>
+        <v>0.01009308553682189</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.255905336911057</v>
+        <v>3.047210413423308</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01009308553682189</v>
+        <v>0.9629846216578645</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.047210413423308</v>
+        <v>1.499050406661788</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9629846216578645</v>
+        <v>36</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.499050406661788</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.37012439988279</v>
       </c>
     </row>
@@ -5250,72 +5226,66 @@
         <v>1.076277069680406e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.35269430883175</v>
+        <v>7.033952430255886e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12.07699975113323</v>
+        <v>3.923323191648924e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.033952430255886e-07</v>
+        <v>-0.09526375566030065</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.923323191648924e-06</v>
+        <v>0.29787335200219</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09526375566030065</v>
+        <v>0.09757432129571364</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.29787335200219</v>
+        <v>1.886616244893677</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09757432129571364</v>
+        <v>1.986483375830871</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.87464197724335</v>
+        <v>3.731790492120107</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.986483375830871</v>
+        <v>1.087948319646257e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.731790492120107</v>
+        <v>212543965.0528463</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.087948319646257e-15</v>
+        <v>5.636776111628292e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>212543965.0528463</v>
+        <v>49.14799688673086</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.636776111628292e-07</v>
+        <v>0.0001326990998427157</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>49.14799688673086</v>
+        <v>10.26818075258823</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001326990998427157</v>
+        <v>1.714344238660143</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.26818075258823</v>
+        <v>0.01399120071436445</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.714344238660143</v>
+        <v>3.198951984667842</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01399120071436445</v>
+        <v>0.9617548692531402</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.198951984667842</v>
+        <v>1.47560545455909</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9617548692531402</v>
+        <v>36</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.47560545455909</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4401327094572989</v>
       </c>
     </row>
@@ -5330,72 +5300,66 @@
         <v>8.153632523701521e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.128681774889376</v>
+        <v>5.295493288221666e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>10.84132499174974</v>
+        <v>3.91455953460963e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.295493288221666e-07</v>
+        <v>-0.09141005497616585</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.91455953460963e-06</v>
+        <v>0.2925174211447791</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09141005497616585</v>
+        <v>0.09370962219445422</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2925174211447791</v>
+        <v>1.886154171986332</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09370962219445422</v>
+        <v>2.138394649433145</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.868981627980134</v>
+        <v>3.694498706097076</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.138394649433145</v>
+        <v>1.110022382229023e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.694498706097076</v>
+        <v>207508920.8615764</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.110022382229023e-15</v>
+        <v>5.778037636909085e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>207508920.8615764</v>
+        <v>47.79751076093361</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.778037636909085e-07</v>
+        <v>0.0001214316783261042</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>47.79751076093361</v>
+        <v>8.698661759505402</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001214316783261042</v>
+        <v>1.789588416519957</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.698661759505402</v>
+        <v>0.009188336366640144</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.789588416519957</v>
+        <v>3.238179708554518</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009188336366640144</v>
+        <v>0.9619963636476022</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.238179708554518</v>
+        <v>1.469068944062194</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9619963636476022</v>
+        <v>27</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.469068944062194</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3932079635978276</v>
       </c>
     </row>
@@ -5410,72 +5374,66 @@
         <v>6.290060580858775e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.811412603424364</v>
+        <v>4.032253261381159e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>9.242173797910493</v>
+        <v>3.908170082107999e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.032253261381159e-07</v>
+        <v>-0.08668866519839068</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.908170082107999e-06</v>
+        <v>0.2872271438876675</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08668866519839068</v>
+        <v>0.08982766660086355</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2872271438876675</v>
+        <v>1.890733877636124</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08982766660086355</v>
+        <v>2.011001173248429</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.875200429515803</v>
+        <v>3.695526478109351</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.011001173248429</v>
+        <v>1.109405045943159e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.695526478109351</v>
+        <v>203055483.5167623</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.109405045943159e-15</v>
+        <v>5.902814859317936e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>203055483.5167623</v>
+        <v>45.74246675303289</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.902814859317936e-07</v>
+        <v>0.00012594265506949</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>45.74246675303289</v>
+        <v>7.724706790134355</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.00012594265506949</v>
+        <v>1.208700818330911</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.724706790134355</v>
+        <v>0.007515136134391161</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.208700818330911</v>
+        <v>3.058804728699184</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007515136134391161</v>
+        <v>0.9613707893842323</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.058804728699184</v>
+        <v>1.4990883232857</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9613707893842323</v>
+        <v>26</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.4990883232857</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3196701034325299</v>
       </c>
     </row>
@@ -5490,72 +5448,66 @@
         <v>4.96567466645416e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.384772020585026</v>
+        <v>3.125959877937801e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7.309205264508959</v>
+        <v>3.903474476790577e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.125959877937801e-07</v>
+        <v>-0.08119911999930522</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.903474476790577e-06</v>
+        <v>0.2861072352910958</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.08119911999930522</v>
+        <v>0.08829710628161394</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2861072352910958</v>
+        <v>1.891566037494088</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.08829710628161394</v>
+        <v>1.927339994042795</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.875654273942431</v>
+        <v>3.735409546612873</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.927339994042795</v>
+        <v>1.085841221693299e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.735409546612873</v>
+        <v>208311931.5437476</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.085841221693299e-15</v>
+        <v>5.748535596364879e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>208311931.5437476</v>
+        <v>47.11884285056412</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.748535596364879e-07</v>
+        <v>0.0001401292593629816</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>47.11884285056412</v>
+        <v>8.540908393337652</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001401292593629816</v>
+        <v>1.245945006312226</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.540908393337652</v>
+        <v>0.01022202536344318</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.245945006312226</v>
+        <v>2.884767954238818</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01022202536344318</v>
+        <v>0.9602044145167465</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.884767954238818</v>
+        <v>1.501393135877735</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9602044145167465</v>
+        <v>26</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.501393135877735</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2873142389499001</v>
       </c>
     </row>
@@ -5570,72 +5522,66 @@
         <v>4.02455008051688e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.832570429181907</v>
+        <v>2.466956693355275e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.99116343389797</v>
+        <v>3.899982293225357e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.466956693355275e-07</v>
+        <v>-0.07486004095272521</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.899982293225357e-06</v>
+        <v>0.2901294795568043</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07486004095272521</v>
+        <v>0.08964909325534086</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2901294795568043</v>
+        <v>1.896569101497219</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.08964909325534086</v>
+        <v>1.957178575870724</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.876792069601088</v>
+        <v>3.828687235259366</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.957178575870724</v>
+        <v>1.033577371902094e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.828687235259366</v>
+        <v>216931508.9624692</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.033577371902094e-15</v>
+        <v>5.484875449465713e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>216931508.9624692</v>
+        <v>48.63940651266077</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.484875449465713e-07</v>
+        <v>0.0001407410369648122</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>48.63940651266077</v>
+        <v>8.523102755108978</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001407410369648122</v>
+        <v>1.201665252485943</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.523102755108978</v>
+        <v>0.01022389063653114</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.201665252485943</v>
+        <v>2.870769587840845</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01022389063653114</v>
+        <v>0.9604380973445671</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.870769587840845</v>
+        <v>1.493924318901105</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9604380973445671</v>
+        <v>28</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.493924318901105</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.291644881744412</v>
       </c>
     </row>
@@ -5650,72 +5596,66 @@
         <v>3.368389252948848e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.198501323701665</v>
+        <v>1.96549661991614e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.521500867776938</v>
+        <v>3.897373315990276e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.96549661991614e-07</v>
+        <v>-0.06661579317959018</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.897373315990276e-06</v>
+        <v>0.2945492709172178</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06661579317959018</v>
+        <v>0.09108509486492142</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2945492709172178</v>
+        <v>1.892789054471385</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.09108509486492142</v>
+        <v>1.904749458019197</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.87250522852167</v>
+        <v>3.928351802236069</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.904749458019197</v>
+        <v>9.81797734357751e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.928351802236069</v>
+        <v>219395898.4093512</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.81797734357751e-16</v>
+        <v>5.42286670174013e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>219395898.4093512</v>
+        <v>47.25840218680602</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.42286670174013e-07</v>
+        <v>0.0001317380501449427</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>47.25840218680602</v>
+        <v>8.708129811243642</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001317380501449427</v>
+        <v>1.149656781880044</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.708129811243642</v>
+        <v>0.009989897217917458</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.149656781880044</v>
+        <v>2.93255515596182</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009989897217917458</v>
+        <v>0.9596370006246772</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.93255515596182</v>
+        <v>1.494177530861374</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9596370006246772</v>
+        <v>28</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.494177530861374</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3213683772323059</v>
       </c>
     </row>
@@ -5730,72 +5670,66 @@
         <v>2.933964367627798e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6163747245098646</v>
+        <v>1.571175199721756e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.5261204433015201</v>
+        <v>3.895449835207648e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.571175199721756e-07</v>
+        <v>-0.05548941128450256</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.895449835207648e-06</v>
+        <v>0.2948908075072894</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05548941128450256</v>
+        <v>0.08994696633307581</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2948908075072894</v>
+        <v>1.890937730591987</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.08994696633307581</v>
+        <v>1.876584041628332</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.87356369752292</v>
+        <v>4.058837198676581</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.876584041628332</v>
+        <v>9.196858604192742e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.058837198676581</v>
+        <v>236313144.8781883</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.196858604192742e-16</v>
+        <v>5.041054131205465e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>236313144.8781883</v>
+        <v>51.35884746674272</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.041054131205465e-07</v>
+        <v>0.0001259239579708215</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>51.35884746674272</v>
+        <v>9.268803267455912</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001259239579708215</v>
+        <v>1.156874158521706</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.268803267455912</v>
+        <v>0.01081821714033942</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.156874158521706</v>
+        <v>2.968672788179969</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01081821714033942</v>
+        <v>0.9603249218939494</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.968672788179969</v>
+        <v>1.507213506356696</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9603249218939494</v>
+        <v>28</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.507213506356696</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3596836419280203</v>
       </c>
     </row>
@@ -5810,72 +5744,66 @@
         <v>2.669685261412372e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2247985941489322</v>
+        <v>1.258477533694728e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5338086242867499</v>
+        <v>3.894087354439731e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.258477533694728e-07</v>
+        <v>-0.04176943821408226</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.894087354439731e-06</v>
+        <v>0.289840907920815</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04176943821408226</v>
+        <v>0.08568221280390127</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.289840907920815</v>
+        <v>1.88489767200214</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.08568221280390127</v>
+        <v>1.813110725319193</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.870186371044673</v>
+        <v>4.359910629977559</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.813110725319193</v>
+        <v>7.970537312866824e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.359910629977559</v>
+        <v>270950392.6781336</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.970537312866824e-16</v>
+        <v>4.396521028054032e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>270950392.6781336</v>
+        <v>58.51499452294583</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.396521028054032e-07</v>
+        <v>0.0001276606847328338</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>58.51499452294583</v>
+        <v>8.451825415771332</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001276606847328338</v>
+        <v>1.213717400547886</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.451825415771332</v>
+        <v>0.009119230738700992</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.213717400547886</v>
+        <v>3.055893143441018</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009119230738700992</v>
+        <v>0.9598887537146007</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.055893143441018</v>
+        <v>1.498475891812912</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9598887537146007</v>
+        <v>28</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.498475891812912</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3596527717864488</v>
       </c>
     </row>
@@ -5890,72 +5818,66 @@
         <v>2.527018951286998e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.04637114253305222</v>
+        <v>1.009028913044022e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8299335841805764</v>
+        <v>3.893198149485784e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.009028913044022e-07</v>
+        <v>-0.02681115858579907</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.893198149485784e-06</v>
+        <v>0.2805434956019337</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02681115858579907</v>
+        <v>0.07937246344106434</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2805434956019337</v>
+        <v>1.889105154062359</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.07937246344106434</v>
+        <v>1.921150929423305</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.882454183926289</v>
+        <v>3.993979323844892</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.921150929423305</v>
+        <v>6.279969505741608e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.993979323844892</v>
+        <v>361983701.8815533</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.279969505741608e-16</v>
+        <v>3.302576832236722e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>361983701.8815533</v>
+        <v>82.28782229572666</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.302576832236722e-07</v>
+        <v>0.0001369384283847986</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>82.28782229572666</v>
+        <v>7.820418800013674</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001369384283847986</v>
+        <v>1.332277601585523</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.820418800013674</v>
+        <v>0.008375010523093898</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.332277601585523</v>
+        <v>3.050862103844178</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008375010523093898</v>
+        <v>0.9609086618109435</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.050862103844178</v>
+        <v>1.473065416059364</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9609086618109435</v>
+        <v>28</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.473065416059364</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3605617801862427</v>
       </c>
     </row>
@@ -5970,72 +5892,66 @@
         <v>2.464477624285265e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.001865210731854707</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8190197901930643</v>
+        <v>3.89271252034908e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>-0.01246342425968414</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.89271252034908e-06</v>
+        <v>0.268984413626944</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01246342425968414</v>
+        <v>0.07247311782598058</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.268984413626944</v>
+        <v>1.905570310751178</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.07247311782598058</v>
+        <v>2.356677581494101</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.904706483212028</v>
+        <v>3.686275364684414</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.356677581494101</v>
+        <v>6.133394630118943e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.686275364684414</v>
+        <v>380342788.2194399</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.133394630118943e-16</v>
+        <v>3.170541317084106e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>380342788.2194399</v>
+        <v>88.7260771408656</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.170541317084106e-07</v>
+        <v>0.0001552629922731663</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>88.7260771408656</v>
+        <v>8.329375633401488</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001552629922731663</v>
+        <v>1.334048059439964</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.329375633401488</v>
+        <v>0.01077191326757108</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.334048059439964</v>
+        <v>2.891912151940978</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01077191326757108</v>
+        <v>0.9610436452060982</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.891912151940978</v>
+        <v>1.411100700935911</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9610436452060982</v>
+        <v>53</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.411100700935911</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3501490586743048</v>
       </c>
     </row>
@@ -6050,72 +5966,66 @@
         <v>2.449132957072992e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.0006120658557911243</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7923136847153636</v>
+        <v>3.892563093671796e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>-0.0002105744815393758</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.892563093671796e-06</v>
+        <v>0.2577075158089562</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0002105744815393758</v>
+        <v>0.06639130946298787</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2577075158089562</v>
+        <v>1.905748452663488</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.06639130946298787</v>
+        <v>2.386333562777593</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.906977167587922</v>
+        <v>3.754177219593619</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.386333562777593</v>
+        <v>5.913531523488734e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.754177219593619</v>
+        <v>395864961.3345207</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.913531523488734e-16</v>
+        <v>3.042831534412742e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>395864961.3345207</v>
+        <v>92.67040113423458</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.042831534412742e-07</v>
+        <v>0.0001729886984186486</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>92.67040113423458</v>
+        <v>9.510221806492483</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001729886984186486</v>
+        <v>1.226986633085738</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.510221806492483</v>
+        <v>0.01564584499007574</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.226986633085738</v>
+        <v>2.684217335139187</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01564584499007574</v>
+        <v>0.9606727474264807</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.684217335139187</v>
+        <v>1.414002081482002</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9606727474264807</v>
+        <v>70</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.414002081482002</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3391039250348509</v>
       </c>
     </row>
@@ -6130,72 +6040,66 @@
         <v>2.457133307554074e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.006585041819391586</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.8141297796854228</v>
+        <v>3.89267985339529e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>0.009189385689110617</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.89267985339529e-06</v>
+        <v>0.2485029535026406</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.009189385689110617</v>
+        <v>0.06182610950126244</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2485029535026406</v>
+        <v>1.909371293768624</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.06182610950126244</v>
+        <v>2.085489486841852</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.91634432034941</v>
+        <v>3.767642850833528</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.085489486841852</v>
+        <v>5.871336899758198e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.767642850833528</v>
+        <v>398019698.752051</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.871336899758198e-16</v>
+        <v>3.025970272304143e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>398019698.752051</v>
+        <v>93.0135316323414</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.025970272304143e-07</v>
+        <v>0.0001780505224741152</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>93.0135316323414</v>
+        <v>10.86076145889393</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001780505224741152</v>
+        <v>1.098686343903393</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.86076145889393</v>
+        <v>0.02100215226112819</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.098686343903393</v>
+        <v>2.585425314486086</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02100215226112819</v>
+        <v>0.9594851054399277</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.585425314486086</v>
+        <v>1.377612524777427</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9594851054399277</v>
+        <v>67</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.377612524777427</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4023677543756917</v>
       </c>
     </row>
@@ -6210,72 +6114,66 @@
         <v>2.473618590911113e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03202404458931403</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8594415878783814</v>
+        <v>3.892995856229627e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>0.0160428597598855</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.892995856229627e-06</v>
+        <v>0.2422986988790913</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.0160428597598855</v>
+        <v>0.0589605810173994</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2422986988790913</v>
+        <v>1.910289249547476</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0589605810173994</v>
+        <v>2.176186191879396</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.919087207842576</v>
+        <v>3.787197013983557</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.176186191879396</v>
+        <v>5.810863316538747e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.787197013983557</v>
+        <v>387613254.9494514</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.810863316538747e-16</v>
+        <v>3.105568758588397e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>387613254.9494514</v>
+        <v>87.30475539072937</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.105568758588397e-07</v>
+        <v>0.0001740821814084217</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>87.30475539072937</v>
+        <v>11.76067401485296</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001740821814084217</v>
+        <v>1.04057600460363</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.76067401485296</v>
+        <v>0.02407790766574745</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.04057600460363</v>
+        <v>2.721700635003165</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02407790766574745</v>
+        <v>0.9602969097813595</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.721700635003165</v>
+        <v>1.387473204478587</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9602969097813595</v>
+        <v>77</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.387473204478587</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5667857309279902</v>
       </c>
     </row>
@@ -6290,72 +6188,66 @@
         <v>2.492632580962977e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.07155530011312874</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9054976517480826</v>
+        <v>3.893460694743737e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>0.02109900992910643</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.893460694743737e-06</v>
+        <v>0.2389359337985397</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02109900992910643</v>
+        <v>0.05753345409543446</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2389359337985397</v>
+        <v>1.919375818998181</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05753345409543446</v>
+        <v>2.007024019348196</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.938055302167669</v>
+        <v>3.965620448017861</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.007024019348196</v>
+        <v>5.299735140651364e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.965620448017861</v>
+        <v>418058493.5543903</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.299735140651364e-16</v>
+        <v>2.877580022323041e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>418058493.5543903</v>
+        <v>92.62501011371994</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.877580022323041e-07</v>
+        <v>0.0001773215584056381</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>92.62501011371994</v>
+        <v>11.3052125567353</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001773215584056381</v>
+        <v>1.270292768171017</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.3052125567353</v>
+        <v>0.02266308376102418</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.270292768171017</v>
+        <v>3.09712791345553</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02266308376102418</v>
+        <v>0.9586562213821327</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.09712791345553</v>
+        <v>1.272165298153752</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9586562213821327</v>
+        <v>77</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.272165298153752</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.8864867913115737</v>
       </c>
     </row>
@@ -6370,72 +6262,66 @@
         <v>2.514760041318326e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1164799880137574</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9481953437773183</v>
+        <v>3.894031698012007e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>0.02420366230647603</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.894031698012007e-06</v>
+        <v>0.2370979707943155</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.02420366230647603</v>
+        <v>0.05679978238946303</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2370979707943155</v>
+        <v>1.9175131983528</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.05679978238946303</v>
+        <v>2.006111573670473</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.936772297896031</v>
+        <v>5.018591295183869</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.006111573670473</v>
+        <v>2.980069092913286e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.018591295183869</v>
+        <v>733005531.3633413</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.980069092913286e-16</v>
+        <v>1.636490126524695e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>733005531.3633413</v>
+        <v>160.118250827014</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.636490126524695e-07</v>
+        <v>0.0001722421459159759</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>160.118250827014</v>
+        <v>9.350608712916921</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001722421459159759</v>
+        <v>1.565235058448357</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.350608712916921</v>
+        <v>0.0150597996857169</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.565235058448357</v>
+        <v>3.345723097968964</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0150597996857169</v>
+        <v>0.9571754326055624</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.345723097968964</v>
+        <v>1.28292822213219</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9571754326055624</v>
+        <v>79</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.28292822213219</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.196069999251413</v>
       </c>
     </row>
@@ -6450,72 +6336,66 @@
         <v>2.542535393308467e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1589672424258991</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9895440832616167</v>
+        <v>3.894672488183875e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>0.02660134783241139</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.894672488183875e-06</v>
+        <v>0.2352676619018747</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.02660134783241139</v>
+        <v>0.05605617361340558</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2352676619018747</v>
+        <v>1.918018641960883</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.05605617361340558</v>
+        <v>2.170493039884523</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.941228751839054</v>
+        <v>5.842160747715998</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.170493039884523</v>
+        <v>1.121396643798915e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.842160747715998</v>
+        <v>1904025384.394841</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.121396643798915e-16</v>
+        <v>6.307913252345999e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1904025384.394841</v>
+        <v>406.5413454602202</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.307913252345999e-08</v>
+        <v>0.0001545824292757315</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>406.5413454602202</v>
+        <v>7.965307283171742</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001545824292757315</v>
+        <v>1.602512677703634</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.965307283171742</v>
+        <v>0.009807655375550473</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.602512677703634</v>
+        <v>3.405063874115468</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009807655375550473</v>
+        <v>0.9593917895787513</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.405063874115468</v>
+        <v>1.262863200384711</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9593917895787513</v>
+        <v>79</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.262863200384711</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.206286268090241</v>
       </c>
     </row>
@@ -6530,72 +6410,66 @@
         <v>2.578416878692671e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1949345840110395</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.026742475326433</v>
+        <v>3.895394741330736e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>0.0300107770627821</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.895394741330736e-06</v>
+        <v>0.2330318089657455</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0300107770627821</v>
+        <v>0.05520157730184924</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2330318089657455</v>
+        <v>1.921771158235643</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05520157730184924</v>
+        <v>2.940164686517741</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.951602317941169</v>
+        <v>4.630722298340755</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.940164686517741</v>
+        <v>6.012994019454636e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.630722298340755</v>
+        <v>3569468028.631086</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.012994019454636e-17</v>
+        <v>3.362328341914277e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>3569468028.631086</v>
+        <v>766.1217017187487</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.362328341914277e-08</v>
+        <v>0.0001338947971084381</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>766.1217017187487</v>
+        <v>7.966217901996272</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001338947971084381</v>
+        <v>1.374863237542217</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.966217901996272</v>
+        <v>0.008497047865189122</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.374863237542217</v>
+        <v>3.530668135006817</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.008497047865189122</v>
+        <v>0.9607281376611999</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.530668135006817</v>
+        <v>1.126775400278099</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9607281376611999</v>
+        <v>85</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.126775400278099</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.314937798827898</v>
       </c>
     </row>
@@ -6610,72 +6484,66 @@
         <v>2.622951800701998e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2229642718029591</v>
+        <v>9.158413630209022e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.051377174245033</v>
+        <v>3.896224488725444e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.158413630209022e-08</v>
+        <v>0.03378194583680778</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.896224488725444e-06</v>
+        <v>0.2296069604698733</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.03378194583680778</v>
+        <v>0.05385833899202878</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2296069604698733</v>
+        <v>1.913007466213624</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.05385833899202878</v>
+        <v>2.699521178927895</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.948117384613695</v>
+        <v>4.80948789713896</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.699521178927895</v>
+        <v>7.794071024616955e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.80948789713896</v>
+        <v>2763593062.549026</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.794071024616955e-17</v>
+        <v>4.329042351317422e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>2763593062.549026</v>
+        <v>595.2680136690719</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.329042351317422e-08</v>
+        <v>0.0001308554593773364</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>595.2680136690719</v>
+        <v>9.668384109289747</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001308554593773364</v>
+        <v>1.233625978736309</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.668384109289747</v>
+        <v>0.01223206100038258</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.233625978736309</v>
+        <v>3.539669167932721</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01223206100038258</v>
+        <v>0.9608992227561713</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.539669167932721</v>
+        <v>1.161373173994541</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9608992227561713</v>
+        <v>77</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.161373173994541</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.49898474707716</v>
       </c>
     </row>
@@ -6690,72 +6558,66 @@
         <v>2.67381169202216e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2444478850768822</v>
+        <v>9.294625249076756e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.057393112356149</v>
+        <v>3.897165734665921e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.294625249076756e-08</v>
+        <v>0.03725322838170403</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.897165734665921e-06</v>
+        <v>0.2253496749191012</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03725322838170403</v>
+        <v>0.05216819100588137</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2253496749191012</v>
+        <v>1.914427880495673</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05216819100588137</v>
+        <v>3.015073120321785</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.947386129549402</v>
+        <v>4.698261869060312</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.015073120321785</v>
+        <v>8.167470833752276e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.698261869060312</v>
+        <v>2686904255.170823</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.167470833752276e-17</v>
+        <v>4.463555480651857e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>2686904255.170823</v>
+        <v>589.6468387204911</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.463555480651857e-08</v>
+        <v>0.000138806679216562</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>589.6468387204911</v>
+        <v>10.77895866096206</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.000138806679216562</v>
+        <v>1.225386696585166</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.77895866096206</v>
+        <v>0.01612738586540467</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.225386696585166</v>
+        <v>3.513807005781246</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01612738586540467</v>
+        <v>0.9622457533044442</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.513807005781246</v>
+        <v>1.15014592815825</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9622457533044442</v>
+        <v>90</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.15014592815825</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.576824377423894</v>
       </c>
     </row>
@@ -6770,72 +6632,66 @@
         <v>2.731162420035681e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2572682481905378</v>
+        <v>9.831979529543355e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.042121012222678</v>
+        <v>3.898217928241489e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.831979529543355e-08</v>
+        <v>0.04066623848928958</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.898217928241489e-06</v>
+        <v>0.2212466287638192</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.04066623848928958</v>
+        <v>0.05060029229996073</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2212466287638192</v>
+        <v>1.90883630177481</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.05060029229996073</v>
+        <v>2.915692541030873</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.940272530798855</v>
+        <v>4.947327874137843</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.915692541030873</v>
+        <v>9.446959960963505e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.947327874137843</v>
+        <v>2377805278.462478</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>9.446959960963505e-17</v>
+        <v>5.04914882059734e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>2377805278.462478</v>
+        <v>534.1271430172875</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.04914882059734e-08</v>
+        <v>0.0001300785593186039</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>534.1271430172875</v>
+        <v>10.30035863470028</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001300785593186039</v>
+        <v>1.306699888394478</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.30035863470028</v>
+        <v>0.01380099537895499</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.306699888394478</v>
+        <v>3.586579010779735</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01380099537895499</v>
+        <v>0.9618940285854265</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.586579010779735</v>
+        <v>1.203234024971911</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9618940285854265</v>
+        <v>88</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.203234024971911</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.587525806439553</v>
       </c>
     </row>
@@ -6850,72 +6706,66 @@
         <v>2.801131347461155e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2509033059366365</v>
+        <v>1.05903922471205e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.9978506356028429</v>
+        <v>3.89939144095578e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.05903922471205e-07</v>
+        <v>0.04414779909628527</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.89939144095578e-06</v>
+        <v>0.2176728122485508</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.04414779909628527</v>
+        <v>0.04932506007260397</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2176728122485508</v>
+        <v>1.907118917214335</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04932506007260397</v>
+        <v>2.524342661248169</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.936340705193185</v>
+        <v>4.722481201700478</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.524342661248169</v>
+        <v>1.036795218408384e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.722481201700478</v>
+        <v>2177945612.581272</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.036795218408384e-16</v>
+        <v>5.504894517364969e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>2177945612.581272</v>
+        <v>491.7983263097295</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.504894517364969e-08</v>
+        <v>0.0001124513736457773</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>491.7983263097295</v>
+        <v>7.733758692732646</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001124513736457773</v>
+        <v>1.416213480955362</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.733758692732646</v>
+        <v>0.006725831753693519</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.416213480955362</v>
+        <v>3.696394552529157</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.006725831753693519</v>
+        <v>0.9621947519236301</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.696394552529157</v>
+        <v>1.219170343972289</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9621947519236301</v>
+        <v>91</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.219170343972289</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.350590084381797</v>
       </c>
     </row>
@@ -6930,72 +6780,66 @@
         <v>2.890568450252861e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.2154158068160737</v>
+        <v>1.136622292458398e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.9185575454451715</v>
+        <v>3.900678164939999e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.136622292458398e-07</v>
+        <v>0.0459085852693964</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.900678164939999e-06</v>
+        <v>0.2128366375062618</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.0459085852693964</v>
+        <v>0.04740241012064621</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2128366375062618</v>
+        <v>1.909150336301738</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.04740241012064621</v>
+        <v>2.396609581107219</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.930183632840546</v>
+        <v>4.688655012229527</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.396609581107219</v>
+        <v>1.193724980405597e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.688655012229527</v>
+        <v>1889635308.81408</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.193724980405597e-16</v>
+        <v>6.346029557881926e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1889635308.81408</v>
+        <v>426.2459572372115</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.346029557881926e-08</v>
+        <v>0.0001106137378946085</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>426.2459572372115</v>
+        <v>7.254490296103015</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001106137378946085</v>
+        <v>1.417385067733018</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.254490296103015</v>
+        <v>0.005821338810688527</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.417385067733018</v>
+        <v>3.584656604642357</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.005821338810688527</v>
+        <v>0.9608767741466295</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.584656604642357</v>
+        <v>1.290326613105674</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9608767741466295</v>
+        <v>95</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.290326613105674</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>1.271715644026499</v>
       </c>
     </row>
@@ -7010,72 +6854,66 @@
         <v>2.998987101047143e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1567160739014894</v>
+        <v>1.201490359772812e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.8237633082693119</v>
+        <v>3.902026709834329e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.201490359772812e-07</v>
+        <v>0.04565444719954544</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.902026709834329e-06</v>
+        <v>0.2060260189145445</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04565444719954544</v>
+        <v>0.04452760240772246</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2060260189145445</v>
+        <v>1.912387354005056</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.04452760240772246</v>
+        <v>2.505699437759358</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.92909264608938</v>
+        <v>4.799873639202334</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.505699437759358</v>
+        <v>1.139045915849248e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.799873639202334</v>
+        <v>1985674038.563773</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.139045915849248e-16</v>
+        <v>6.053019485543556e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1985674038.563773</v>
+        <v>449.1145721944109</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>6.053019485543556e-08</v>
+        <v>0.0001226725367987435</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>449.1145721944109</v>
+        <v>8.233415394341275</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001226725367987435</v>
+        <v>1.502750971094778</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.233415394341275</v>
+        <v>0.008315864428649442</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.502750971094778</v>
+        <v>3.373138782638949</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.008315864428649442</v>
+        <v>0.9601116093197796</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.373138782638949</v>
+        <v>1.275565143793633</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9601116093197796</v>
+        <v>102</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.275565143793633</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.237010689142542</v>
       </c>
     </row>
@@ -7090,72 +6928,66 @@
         <v>3.123375388733481e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.08460708622353938</v>
+        <v>1.269588733745749e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.7274170620987839</v>
+        <v>3.903429279046707e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.269588733745749e-07</v>
+        <v>0.04642851578896199</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.903429279046707e-06</v>
+        <v>0.1990337489558308</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04642851578896199</v>
+        <v>0.04176635401627637</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1990337489558308</v>
+        <v>1.912907576811575</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.04176635401627637</v>
+        <v>2.740717352108573</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.922829348541668</v>
+        <v>4.732042766610906</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.740717352108573</v>
+        <v>1.171934981682793e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.732042766610906</v>
+        <v>1836426558.98455</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.171934981682793e-16</v>
+        <v>6.528776202636907e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1836426558.98455</v>
+        <v>395.2306785832355</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.528776202636907e-08</v>
+        <v>0.0001161995433717282</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>395.2306785832355</v>
+        <v>7.649648557742507</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001161995433717282</v>
+        <v>1.55451837502547</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.649648557742507</v>
+        <v>0.006799662978647379</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.55451837502547</v>
+        <v>3.444863387467692</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.006799662978647379</v>
+        <v>0.9592942380958679</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.444863387467692</v>
+        <v>1.337550767280611</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9592942380958679</v>
+        <v>102</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.337550767280611</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.065255982233044</v>
       </c>
     </row>
@@ -7170,72 +7002,66 @@
         <v>3.265937081083462e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.001277865148658046</v>
+        <v>1.363092932562889e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.6098730591635872</v>
+        <v>3.904960617758561e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.363092932562889e-07</v>
+        <v>0.05000332699748992</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.904960617758561e-06</v>
+        <v>0.1924431986247471</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.05000332699748992</v>
+        <v>0.03952646831866325</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1924431986247471</v>
+        <v>1.903979811779698</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03952646831866325</v>
+        <v>2.262708814896417</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.912163305704732</v>
+        <v>5.209913832220076</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.262708814896417</v>
+        <v>1.899703748209104e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.209913832220076</v>
+        <v>1097222654.421057</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.899703748209104e-16</v>
+        <v>1.085467075544725e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1097222654.421057</v>
+        <v>228.7048694605861</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.085467075544725e-07</v>
+        <v>0.0001275451938128265</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>228.7048694605861</v>
+        <v>8.267270935199059</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001275451938128265</v>
+        <v>1.602307774964493</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.267270935199059</v>
+        <v>0.008717429407554815</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.602307774964493</v>
+        <v>3.295961702579733</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.008717429407554815</v>
+        <v>0.9594982278718244</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.295961702579733</v>
+        <v>1.359612860857168</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9594982278718244</v>
+        <v>76</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.359612860857168</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.9861569381839885</v>
       </c>
     </row>
@@ -7250,72 +7076,66 @@
         <v>3.437525669745085e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1166815793432756</v>
+        <v>1.504822639765199e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.4168090859589362</v>
+        <v>3.90673858466976e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.504822639765199e-07</v>
+        <v>0.05658611150411664</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.90673858466976e-06</v>
+        <v>0.1872570656811176</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05658611150411664</v>
+        <v>0.0382507342401481</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1872570656811176</v>
+        <v>1.894230914846774</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.0382507342401481</v>
+        <v>2.032911712779943</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.898304398936221</v>
+        <v>4.735734040675294</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.032911712779943</v>
+        <v>3.182346646200614e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.735734040675294</v>
+        <v>658288361.9225965</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.182346646200614e-16</v>
+        <v>1.807722585236629e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>658288361.9225965</v>
+        <v>137.9049448503999</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.807722585236629e-07</v>
+        <v>0.0001207223337320955</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>137.9049448503999</v>
+        <v>7.575883012102747</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001207223337320955</v>
+        <v>1.71091543603503</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.575883012102747</v>
+        <v>0.006928738034253298</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.71091543603503</v>
+        <v>3.334751258676198</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.006928738034253298</v>
+        <v>0.9584576790627587</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.334751258676198</v>
+        <v>1.357436411844281</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9584576790627587</v>
+        <v>59</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.357436411844281</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.7343488511314767</v>
       </c>
     </row>
@@ -7330,72 +7150,66 @@
         <v>3.651547818256589e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2792372160435572</v>
+        <v>1.664594276399532e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.09189148752765952</v>
+        <v>3.908869877351271e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.664594276399532e-07</v>
+        <v>0.06330121025185306</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.908869877351271e-06</v>
+        <v>0.1806962573392312</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.06330121025185306</v>
+        <v>0.03664765933193564</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1806962573392312</v>
+        <v>1.868694304644538</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03664765933193564</v>
+        <v>1.982391190311141</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.844069261379321</v>
+        <v>6.900087236495694</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.982391190311141</v>
+        <v>4.707420575652847e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>6.900087236495694</v>
+        <v>467061503.4251438</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.707420575652847e-16</v>
+        <v>2.535451605117813e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>467061503.4251438</v>
+        <v>102.69070777349</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.535451605117813e-07</v>
+        <v>0.0001469476924605206</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>102.69070777349</v>
+        <v>9.204804195535671</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001469476924605206</v>
+        <v>1.5026494470119</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.204804195535671</v>
+        <v>0.01245064584569949</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.5026494470119</v>
+        <v>2.909579523374774</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01245064584569949</v>
+        <v>0.9593449552961277</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.909579523374774</v>
+        <v>1.530512013172891</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9593449552961277</v>
+        <v>56</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.530512013172891</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.6304058833272783</v>
       </c>
     </row>
@@ -7410,72 +7224,66 @@
         <v>3.890204468926085e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4478082533876106</v>
+        <v>1.757586371341411e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.2384100980166619</v>
+        <v>3.911324345242109e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.757586371341411e-07</v>
+        <v>0.06610988957817364</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.911324345242109e-06</v>
+        <v>0.1688328163998631</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.06610988957817364</v>
+        <v>0.03287298763291709</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1688328163998631</v>
+        <v>1.854989991652875</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03287298763291709</v>
+        <v>1.818926000409745</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.829050180816903</v>
+        <v>5.084336730628248</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.818926000409745</v>
+        <v>1.101235855832312e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.084336730628248</v>
+        <v>198396260.4785698</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.101235855832312e-15</v>
+        <v>5.949448046536433e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>198396260.4785698</v>
+        <v>43.34582840462167</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.949448046536433e-07</v>
+        <v>0.000141830629478415</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>43.34582840462167</v>
+        <v>8.259776260722665</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.000141830629478415</v>
+        <v>1.748609339107258</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.259776260722665</v>
+        <v>0.009676239232377825</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.748609339107258</v>
+        <v>3.156130502831251</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009676239232377825</v>
+        <v>0.9591314436291483</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.156130502831251</v>
+        <v>1.583110454607685</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9591314436291483</v>
+        <v>39</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.583110454607685</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.4631087793364852</v>
       </c>
     </row>
@@ -7490,72 +7298,66 @@
         <v>4.108918965805389e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5605836657463378</v>
+        <v>1.768040042573695e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.3832382088991628</v>
+        <v>3.913958683384454e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.768040042573695e-07</v>
+        <v>0.06491408326561951</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.913958683384454e-06</v>
+        <v>0.1580084900143034</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.06491408326561951</v>
+        <v>0.02917892064576146</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1580084900143034</v>
+        <v>1.851236927084706</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02917892064576146</v>
+        <v>1.828613091023216</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.830019933256826</v>
+        <v>4.182498103888456</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.828613091023216</v>
+        <v>1.668543208192652e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.182498103888456</v>
+        <v>133684122.4061422</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.668543208192652e-15</v>
+        <v>8.831299946108717e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>133684122.4061422</v>
+        <v>29.81927748039098</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>8.831299946108717e-07</v>
+        <v>0.0001379513767210143</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>29.81927748039098</v>
+        <v>7.419961632339173</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001379513767210143</v>
+        <v>1.5371100554693</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.419961632339173</v>
+        <v>0.0075950276312909</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.5371100554693</v>
+        <v>3.101643393307625</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0075950276312909</v>
+        <v>0.960681361207116</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.101643393307625</v>
+        <v>1.587852695930167</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.960681361207116</v>
+        <v>39</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.587852695930167</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2887091037752859</v>
       </c>
     </row>
@@ -7570,72 +7372,66 @@
         <v>4.270142594123562e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.6021844077789279</v>
+        <v>1.768040042573695e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.3317270444102727</v>
+        <v>3.916610671463892e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.768040042573695e-07</v>
+        <v>0.06122020018699344</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.916610671463892e-06</v>
+        <v>0.1539050015632475</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.06122020018699344</v>
+        <v>0.02743023618338518</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1539050015632475</v>
+        <v>1.849188231671044</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02743023618338518</v>
+        <v>1.846726308889973</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.82272536092066</v>
+        <v>3.967607712433649</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.846726308889973</v>
+        <v>1.854178374033833e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.967607712433649</v>
+        <v>126599592.5888487</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.854178374033833e-15</v>
+        <v>9.37587602542185e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>126599592.5888487</v>
+        <v>29.71776387027954</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.37587602542185e-07</v>
+        <v>0.0001437343872080494</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>29.71776387027954</v>
+        <v>8.765637553786892</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001437343872080494</v>
+        <v>1.218776206278925</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.765637553786892</v>
+        <v>0.01104403311712226</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.218776206278925</v>
+        <v>2.893314170906138</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01104403311712226</v>
+        <v>0.9611917238055304</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.893314170906138</v>
+        <v>1.573326649516271</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9611917238055304</v>
+        <v>37</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.573326649516271</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2307606638101585</v>
       </c>
     </row>
@@ -7650,72 +7446,66 @@
         <v>4.36123879228916e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.5958497061632455</v>
+        <v>1.768040042573695e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.1927883258219909</v>
+        <v>3.919161563874884e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.768040042573695e-07</v>
+        <v>0.05678754250025595</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.919161563874884e-06</v>
+        <v>0.1556311833401203</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.05678754250025595</v>
+        <v>0.02744057011531452</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1556311833401203</v>
+        <v>1.847102388383104</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02744057011531452</v>
+        <v>1.844733783871959</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.814435540129643</v>
+        <v>3.988411543730635</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.844733783871959</v>
+        <v>1.834885775314088e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.988411543730635</v>
+        <v>129143330.3082858</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.834885775314088e-15</v>
+        <v>9.187931572979826e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>129143330.3082858</v>
+        <v>30.60222452603146</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.187931572979826e-07</v>
+        <v>0.0001543078527346374</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>30.60222452603146</v>
+        <v>9.810484326233823</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001543078527346374</v>
+        <v>1.187223901061608</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.810484326233823</v>
+        <v>0.01485145229014577</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.187223901061608</v>
+        <v>2.659590509697709</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01485145229014577</v>
+        <v>0.9605377499369046</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.659590509697709</v>
+        <v>1.593339753312832</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9605377499369046</v>
+        <v>42</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.593339753312832</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2154424820149891</v>
       </c>
     </row>
@@ -7730,72 +7520,66 @@
         <v>4.389741601565663e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5710319645720359</v>
+        <v>1.768040042573695e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.05558797613334887</v>
+        <v>3.921560515695186e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.768040042573695e-07</v>
+        <v>0.05286127765202157</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.921560515695186e-06</v>
+        <v>0.1596638052477193</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.05286127765202157</v>
+        <v>0.02828280278253877</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1596638052477193</v>
+        <v>1.846811868099944</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02828280278253877</v>
+        <v>1.919167972998347</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.813216708822938</v>
+        <v>3.959084825925082</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.919167972998347</v>
+        <v>1.862170100596836e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.959084825925082</v>
+        <v>127259882.1810088</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.862170100596836e-15</v>
+        <v>9.322555119302045e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>127259882.1810088</v>
+        <v>30.15798930726027</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>9.322555119302045e-07</v>
+        <v>0.0001623883575251152</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>30.15798930726027</v>
+        <v>9.809770528229983</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001623883575251152</v>
+        <v>1.210424696952696</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.809770528229983</v>
+        <v>0.0156268911114437</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.210424696952696</v>
+        <v>2.630169610980365</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.0156268911114437</v>
+        <v>0.9593388432607421</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.630169610980365</v>
+        <v>1.602870888982379</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9593388432607421</v>
+        <v>37</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.602870888982379</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2063886374863746</v>
       </c>
     </row>
@@ -7810,72 +7594,66 @@
         <v>4.370106917445914e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.5483229133058157</v>
+        <v>1.768040042573695e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.04818561537046806</v>
+        <v>3.923815432372762e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.768040042573695e-07</v>
+        <v>0.05023384809621809</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.923815432372762e-06</v>
+        <v>0.1636801514453871</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.05023384809621809</v>
+        <v>0.02931280778272386</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1636801514453871</v>
+        <v>1.851628580568147</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02931280778272386</v>
+        <v>1.940320675443953</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.813172885591803</v>
+        <v>3.823273183639857</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.940320675443953</v>
+        <v>1.996817166585765e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.823273183639857</v>
+        <v>118205579.2646547</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.996817166585765e-15</v>
+        <v>1.00540677362412e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>118205579.2646547</v>
+        <v>27.90064561101531</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.00540677362412e-06</v>
+        <v>0.0001723036172828122</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>27.90064561101531</v>
+        <v>8.743949610212329</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001723036172828122</v>
+        <v>1.349254433276932</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.743949610212329</v>
+        <v>0.01317375818495938</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.349254433276932</v>
+        <v>2.733252129168044</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01317375818495938</v>
+        <v>0.9600814382636738</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.733252129168044</v>
+        <v>1.595490727165334</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9600814382636738</v>
+        <v>37</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.595490727165334</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1894392143541594</v>
       </c>
     </row>
@@ -7890,72 +7668,66 @@
         <v>4.316900989961575e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.5386888609109806</v>
+        <v>1.768040042573695e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.1250563431607619</v>
+        <v>3.925972957472058e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.768040042573695e-07</v>
+        <v>0.04933265430261264</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.925972957472058e-06</v>
+        <v>0.1669223552525288</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.04933265430261264</v>
+        <v>0.03029678955685377</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1669223552525288</v>
+        <v>1.843267445872815</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03029678955685377</v>
+        <v>1.848561867592994</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.807319573989091</v>
+        <v>3.639305777485608</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.848561867592994</v>
+        <v>2.203798429407208e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.639305777485608</v>
+        <v>104152184.7526908</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.203798429407208e-15</v>
+        <v>1.137932320785516e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>104152184.7526908</v>
+        <v>23.90609483282207</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.137932320785516e-06</v>
+        <v>0.0001845742560418683</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>23.90609483282207</v>
+        <v>8.835540721196121</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001845742560418683</v>
+        <v>1.437149955538391</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.835540721196121</v>
+        <v>0.01440911780979831</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.437149955538391</v>
+        <v>2.726358179935415</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01440911780979831</v>
+        <v>0.9573794865099182</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.726358179935415</v>
+        <v>1.591931673232653</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9573794865099182</v>
+        <v>24</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.591931673232653</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1779986432003812</v>
       </c>
     </row>
@@ -8332,7 +8104,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.249885454063066</v>
+        <v>1.249400965203585</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.012291404565651</v>
@@ -8421,7 +8193,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312319194012344</v>
+        <v>1.310982891696772</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.818019519688513</v>
@@ -8510,7 +8282,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.371598088793818</v>
+        <v>1.372992106287307</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.912574242993428</v>
@@ -8599,7 +8371,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.363945771512562</v>
+        <v>1.36746755930752</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.947215140587847</v>
@@ -8688,7 +8460,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.322951572334063</v>
+        <v>1.329554698398367</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.928651247440012</v>
@@ -8777,7 +8549,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.365812898551271</v>
+        <v>1.368550019545587</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.915877347807957</v>
@@ -8866,7 +8638,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.411463811152539</v>
+        <v>1.414192495320141</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.860279773418199</v>
@@ -8955,7 +8727,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.365921328336096</v>
+        <v>1.368689490371485</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.895911247187813</v>
@@ -9044,7 +8816,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.364178993312533</v>
+        <v>1.371571080844252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.950062776098438</v>
@@ -9133,7 +8905,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.371643038814304</v>
+        <v>1.382955564331987</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.912626802394078</v>
@@ -9222,7 +8994,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.34080002778642</v>
+        <v>1.341713622009562</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.965744358210477</v>
@@ -9311,7 +9083,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.317320517908499</v>
+        <v>1.327319742721246</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.956319057635983</v>
@@ -9400,7 +9172,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.311705967804697</v>
+        <v>1.309535309238899</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.955797016584732</v>
@@ -9489,7 +9261,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.289081502583927</v>
+        <v>1.2930363586743</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.033540808917048</v>
@@ -9578,7 +9350,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.323058673680508</v>
+        <v>1.32637139192836</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.080778374634312</v>
@@ -9667,7 +9439,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.323888767806518</v>
+        <v>1.327385694198508</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.051234568818751</v>
@@ -9756,7 +9528,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.321391182041308</v>
+        <v>1.323628433779994</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.024979984673599</v>
@@ -9845,7 +9617,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.280516490270025</v>
+        <v>1.284733991315934</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.033902621162402</v>
@@ -9934,7 +9706,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.286939063871238</v>
+        <v>1.289985990567132</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.088783719179834</v>
@@ -10023,7 +9795,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.317533953557286</v>
+        <v>1.319256550685837</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.024458852959545</v>
@@ -10112,7 +9884,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.33077424744626</v>
+        <v>1.324600472704168</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.089613935897948</v>
@@ -10201,7 +9973,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.296108641289118</v>
+        <v>1.295887507601233</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.052952754985761</v>
@@ -10290,7 +10062,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.325470577844328</v>
+        <v>1.323309952416416</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.01101107474</v>
@@ -10379,7 +10151,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.330663608393869</v>
+        <v>1.325229084137432</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.070323936144846</v>
@@ -10468,7 +10240,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.335566209069762</v>
+        <v>1.324928406528233</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.091721304082017</v>
@@ -10557,7 +10329,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.378259655710975</v>
+        <v>1.360671882016808</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.989622478598922</v>
@@ -10646,7 +10418,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.364578282620374</v>
+        <v>1.34277738567322</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.081820130456705</v>
@@ -10735,7 +10507,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.409154543572019</v>
+        <v>1.382379632016099</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.247734225159271</v>
@@ -10824,7 +10596,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.377292396663323</v>
+        <v>1.351931708606295</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.176803847212026</v>
@@ -10913,7 +10685,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.356313250151975</v>
+        <v>1.331652223114451</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.14596013905168</v>
@@ -11002,7 +10774,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.357051337801104</v>
+        <v>1.333204707301028</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.214512747378566</v>
@@ -11091,7 +10863,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.368866792371224</v>
+        <v>1.340178962530706</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.9658830746725</v>
@@ -11180,7 +10952,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.403851293457254</v>
+        <v>1.365863232424815</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.171204989618007</v>
@@ -11269,7 +11041,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.399577044831357</v>
+        <v>1.362624237827881</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.230949517498709</v>
@@ -11358,7 +11130,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.377768343716738</v>
+        <v>1.339943904386341</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.282052954514513</v>
@@ -11447,7 +11219,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.401887079515258</v>
+        <v>1.361706741738687</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.053880451568131</v>
@@ -11536,7 +11308,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.396448078323126</v>
+        <v>1.354474125083897</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.344170348161273</v>
@@ -11625,7 +11397,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.393971470930059</v>
+        <v>1.352934900793841</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.38777805753733</v>
@@ -11714,7 +11486,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.399195692259272</v>
+        <v>1.352736672972943</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.387756672569779</v>
@@ -11803,7 +11575,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.397988898737281</v>
+        <v>1.352475404290596</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.447600494619956</v>
@@ -11892,7 +11664,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.403807874810354</v>
+        <v>1.355616077631365</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.125625008103474</v>
@@ -11981,7 +11753,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.387810257013817</v>
+        <v>1.349843491232344</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.300493497447184</v>
@@ -12070,7 +11842,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.395922977621521</v>
+        <v>1.35839502616819</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.07926422645708</v>
@@ -12159,7 +11931,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.408456007113954</v>
+        <v>1.368406635295211</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.074182214016471</v>
@@ -12248,7 +12020,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.405936686567123</v>
+        <v>1.361612980251855</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.258452296495865</v>
@@ -12337,7 +12109,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.395890629436934</v>
+        <v>1.359442740192393</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.226630805167328</v>
@@ -12426,7 +12198,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.394436281338254</v>
+        <v>1.355161738534179</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.25512140900046</v>
@@ -12515,7 +12287,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.393375421588412</v>
+        <v>1.356341625410707</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.227950954804525</v>
@@ -12604,7 +12376,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.389789678841804</v>
+        <v>1.351970644476843</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.240099440856244</v>
@@ -12693,7 +12465,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.398936006319591</v>
+        <v>1.362297060929939</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.280434149296678</v>
@@ -12782,7 +12554,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.391067769197588</v>
+        <v>1.354711470742181</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.186643879840614</v>
@@ -12871,7 +12643,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.410547329283916</v>
+        <v>1.372858322393204</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.143082000688256</v>
@@ -12960,7 +12732,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.388135519643219</v>
+        <v>1.357262619522371</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.170105997508673</v>
@@ -13049,7 +12821,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.383377566685747</v>
+        <v>1.355642256934666</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.137156710719244</v>
@@ -13138,7 +12910,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.360914702248186</v>
+        <v>1.336716018591563</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.225626290372346</v>
@@ -13227,7 +12999,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.395518513679044</v>
+        <v>1.364385605634852</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.038780639504969</v>
@@ -13316,7 +13088,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.368165036682027</v>
+        <v>1.339370825745866</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.212458161296474</v>
@@ -13405,7 +13177,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.370785124440737</v>
+        <v>1.343560961113017</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.277373392108181</v>
@@ -13494,7 +13266,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.371340920944345</v>
+        <v>1.343243734844098</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.231342714054315</v>
@@ -13583,7 +13355,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.416399221592598</v>
+        <v>1.3804898104629</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.179180595050561</v>
@@ -13672,7 +13444,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.42025620010166</v>
+        <v>1.381046406380178</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.39560783983856</v>
@@ -13761,7 +13533,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.426886222753689</v>
+        <v>1.386879213420811</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.286954956505191</v>
@@ -13850,7 +13622,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.428868422835796</v>
+        <v>1.390857814585899</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.417832049618986</v>
@@ -13939,7 +13711,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.41897509117114</v>
+        <v>1.385035339475236</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.205444034861129</v>
@@ -14028,7 +13800,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.420530502136955</v>
+        <v>1.388354040896223</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.236007974267284</v>
@@ -14117,7 +13889,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.417305741000079</v>
+        <v>1.388487665040688</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.186062762530923</v>
@@ -14206,7 +13978,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.417156972365183</v>
+        <v>1.388075777384478</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.235910484689811</v>
@@ -14295,7 +14067,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.417969040202447</v>
+        <v>1.389178833998869</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.214337603703604</v>
@@ -14384,7 +14156,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.413777756920572</v>
+        <v>1.391199928287608</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.179730256877509</v>
@@ -14473,7 +14245,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.445532951451931</v>
+        <v>1.417498428260395</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.158309202354542</v>
@@ -14562,7 +14334,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.443602758350411</v>
+        <v>1.411009711298561</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.309899121348792</v>
@@ -14651,7 +14423,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.451428433833464</v>
+        <v>1.422426690084238</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.186279102851257</v>
@@ -14740,7 +14512,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.444256086089585</v>
+        <v>1.415580983339999</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.194739052723834</v>
@@ -14829,7 +14601,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.443411148746803</v>
+        <v>1.415338294544272</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.23530628994481</v>
@@ -14918,7 +14690,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.39577681046333</v>
+        <v>1.379509341001467</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.08953403784983</v>
@@ -15007,7 +14779,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.396851094997216</v>
+        <v>1.382903809189011</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.136008408810566</v>
@@ -15096,7 +14868,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.394800792890027</v>
+        <v>1.38318212373085</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.114663775345011</v>
@@ -15185,7 +14957,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.39498891492811</v>
+        <v>1.380063829792477</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.129049783990272</v>
@@ -15274,7 +15046,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.428070564033053</v>
+        <v>1.411306226105238</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.170168117103612</v>
@@ -15363,7 +15135,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.392405214955791</v>
+        <v>1.37928701740134</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.214086678491692</v>
@@ -15452,7 +15224,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.397962698199003</v>
+        <v>1.379825433178439</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.190707105712137</v>
@@ -15738,7 +15510,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.600606043614965</v>
+        <v>1.576634151983642</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.883973424373668</v>
@@ -15827,7 +15599,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612180172190164</v>
+        <v>1.585129550801076</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.560878272058924</v>
@@ -15916,7 +15688,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.623625379309405</v>
+        <v>1.587878559715748</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.666552648915128</v>
@@ -16005,7 +15777,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.616291919241179</v>
+        <v>1.581786865466143</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.804875966871943</v>
@@ -16094,7 +15866,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607532043483374</v>
+        <v>1.571961680694413</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.829570520113436</v>
@@ -16183,7 +15955,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.618295055680743</v>
+        <v>1.584665870526083</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.671941599191616</v>
@@ -16272,7 +16044,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.643545892387981</v>
+        <v>1.614599278350397</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.820457800349117</v>
@@ -16361,7 +16133,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.640431229166174</v>
+        <v>1.611747373798216</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.660286759507182</v>
@@ -16450,7 +16222,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.650396104941499</v>
+        <v>1.622323780145396</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.725835096548096</v>
@@ -16539,7 +16311,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.654714939880069</v>
+        <v>1.621850393632047</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.739761550727493</v>
@@ -16628,7 +16400,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600915256964297</v>
+        <v>1.566238264368739</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.359140969305159</v>
@@ -16717,7 +16489,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.59719979531993</v>
+        <v>1.562522716523148</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.37311295350192</v>
@@ -16806,7 +16578,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.581733674822957</v>
+        <v>1.547043385994521</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.385401256605657</v>
@@ -16895,7 +16667,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.573649753686612</v>
+        <v>1.536218511283729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.285995615220249</v>
@@ -16984,7 +16756,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.589392505082058</v>
+        <v>1.550996315224433</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.371701407914749</v>
@@ -17073,7 +16845,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.59961238572425</v>
+        <v>1.564442547178836</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.414951706109135</v>
@@ -17162,7 +16934,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609500392043968</v>
+        <v>1.568235169352792</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.375338675380097</v>
@@ -17251,7 +17023,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.595329238948888</v>
+        <v>1.554507426855623</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.326713762900908</v>
@@ -17340,7 +17112,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.603127186393493</v>
+        <v>1.559111170812963</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.302898158029174</v>
@@ -17429,7 +17201,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609355400977041</v>
+        <v>1.563465753079633</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.288077324001741</v>
@@ -17518,7 +17290,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.603065872782068</v>
+        <v>1.558687977327951</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.33073465169739</v>
@@ -17607,7 +17379,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.583836505280937</v>
+        <v>1.541040912792188</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.444297848168363</v>
@@ -17696,7 +17468,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.573714568555916</v>
+        <v>1.529237440380414</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.407759265855777</v>
@@ -17785,7 +17557,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567774249109694</v>
+        <v>1.522994913260882</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.451723122872295</v>
@@ -17874,7 +17646,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567502941536838</v>
+        <v>1.512543272356682</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.408776441689528</v>
@@ -17963,7 +17735,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.607370162540391</v>
+        <v>1.549971122586504</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.826792928663717</v>
@@ -18052,7 +17824,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.586366399596107</v>
+        <v>1.522879256430852</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.925019284779873</v>
@@ -18141,7 +17913,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.584690610192849</v>
+        <v>1.514361030451451</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.700963055850666</v>
@@ -18230,7 +18002,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.583725342775505</v>
+        <v>1.510367268389538</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.887990475376446</v>
@@ -18319,7 +18091,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.57143866993509</v>
+        <v>1.498497062424734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.758931057748259</v>
@@ -18408,7 +18180,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56123632054618</v>
+        <v>1.489650421930163</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.779998191352587</v>
@@ -18497,7 +18269,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.555201440978695</v>
+        <v>1.485671465966647</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.853723343555737</v>
@@ -18586,7 +18358,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.548488384901051</v>
+        <v>1.476336546844604</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.819279204256297</v>
@@ -18675,7 +18447,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.537779116656513</v>
+        <v>1.466513700340006</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.96438036245162</v>
@@ -18764,7 +18536,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.528337333420686</v>
+        <v>1.453371526944096</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.879918455076511</v>
@@ -18853,7 +18625,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535756017892602</v>
+        <v>1.461625502704236</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.944679219420868</v>
@@ -18942,7 +18714,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.548987960942816</v>
+        <v>1.460971603553631</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.948055512987231</v>
@@ -19031,7 +18803,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.549576152108274</v>
+        <v>1.46423940668898</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.017579471115611</v>
@@ -19120,7 +18892,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.547885398155007</v>
+        <v>1.461744218687546</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.950163565387024</v>
@@ -19209,7 +18981,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.539502813194902</v>
+        <v>1.460063536248977</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.735688068293946</v>
@@ -19298,7 +19070,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.545038313143864</v>
+        <v>1.469598446665271</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.76986764973468</v>
@@ -19387,7 +19159,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553297730532458</v>
+        <v>1.478509049297792</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.699906928034932</v>
@@ -19476,7 +19248,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.555321120808638</v>
+        <v>1.484165655916125</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.697843376510094</v>
@@ -19565,7 +19337,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553708801814648</v>
+        <v>1.484598309476948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.806533940489333</v>
@@ -19654,7 +19426,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.536564036612987</v>
+        <v>1.469272750609511</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.738939771302972</v>
@@ -19743,7 +19515,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534860018811018</v>
+        <v>1.470255907087668</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.943910837509712</v>
@@ -19832,7 +19604,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.537098355465834</v>
+        <v>1.469583891253843</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.950860805189033</v>
@@ -19921,7 +19693,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.536402055564755</v>
+        <v>1.4702954801523</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.878421310767803</v>
@@ -20010,7 +19782,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.52419920338154</v>
+        <v>1.462343411462757</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.410179788837896</v>
@@ -20099,7 +19871,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.526473362905734</v>
+        <v>1.468853492947505</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.597295119882677</v>
@@ -20188,7 +19960,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.520515162808604</v>
+        <v>1.461597318515623</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.567546759506523</v>
@@ -20277,7 +20049,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.517254761414019</v>
+        <v>1.464742597052505</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.663390928833114</v>
@@ -20366,7 +20138,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.518651305815368</v>
+        <v>1.467745693368335</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.515677382620016</v>
@@ -20455,7 +20227,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.516851147803445</v>
+        <v>1.468335365066106</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.535199626846149</v>
@@ -20544,7 +20316,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.522886554360213</v>
+        <v>1.471940742498601</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.534851719240945</v>
@@ -20633,7 +20405,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.518845234349946</v>
+        <v>1.463853414045136</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.487167323391995</v>
@@ -20722,7 +20494,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.509377568258853</v>
+        <v>1.457251638315393</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.353634998924579</v>
@@ -20811,7 +20583,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.511171367605818</v>
+        <v>1.459462901870126</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.559188989111077</v>
@@ -20900,7 +20672,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.513878298675436</v>
+        <v>1.462039089820305</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.542711326679202</v>
@@ -20989,7 +20761,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.547666717627588</v>
+        <v>1.489591558234163</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.383363332345129</v>
@@ -21078,7 +20850,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.552680498530377</v>
+        <v>1.491659027683874</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.445334310420098</v>
@@ -21167,7 +20939,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.556691293160517</v>
+        <v>1.493433269897159</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.460839209014862</v>
@@ -21256,7 +21028,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.559283268780987</v>
+        <v>1.499600176543155</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.511462187093304</v>
@@ -21345,7 +21117,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.591293004695087</v>
+        <v>1.524655556883431</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.322270059605645</v>
@@ -21434,7 +21206,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.587475357794477</v>
+        <v>1.521011500584181</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.136678183716455</v>
@@ -21523,7 +21295,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.579355855776446</v>
+        <v>1.522006878351273</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.2669272375605</v>
@@ -21612,7 +21384,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.581095090227881</v>
+        <v>1.529492582634788</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.274240259626334</v>
@@ -21701,7 +21473,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.584849676286524</v>
+        <v>1.531186832770987</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.964205346198559</v>
@@ -21790,7 +21562,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.582531185231369</v>
+        <v>1.533127559365556</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.967743690392278</v>
@@ -21879,7 +21651,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.593316465911449</v>
+        <v>1.541245644781201</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.155103024055832</v>
@@ -21968,7 +21740,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.591454679846612</v>
+        <v>1.536868157840424</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.264645896197612</v>
@@ -22057,7 +21829,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.603165805053582</v>
+        <v>1.547912071083188</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.382747485036243</v>
@@ -22146,7 +21918,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.596083120819151</v>
+        <v>1.545156971470661</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.314960650385606</v>
@@ -22235,7 +22007,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.595011077485584</v>
+        <v>1.545981294650568</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.303081645764083</v>
@@ -22324,7 +22096,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.586046998084251</v>
+        <v>1.540903462865772</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.816619462920509</v>
@@ -22413,7 +22185,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.585775315267668</v>
+        <v>1.544960076181928</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.198524633309682</v>
@@ -22502,7 +22274,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.578936524030194</v>
+        <v>1.543089804945023</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.219128769923832</v>
@@ -22591,7 +22363,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.579566183797062</v>
+        <v>1.5409621068005</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.216065372122841</v>
@@ -22680,7 +22452,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.585525875851639</v>
+        <v>1.54082146216954</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.220477580931419</v>
@@ -22769,7 +22541,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.583021657198318</v>
+        <v>1.538312162410938</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.617299632128399</v>
@@ -22858,7 +22630,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.588278104553424</v>
+        <v>1.538283539260662</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.217060241386436</v>
@@ -23144,7 +22916,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.518471934498181</v>
+        <v>1.508516066218398</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.981186118551791</v>
@@ -23233,7 +23005,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.536681177517836</v>
+        <v>1.520031336881297</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.625974061712869</v>
@@ -23322,7 +23094,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554962280871084</v>
+        <v>1.539208883040185</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.763274729520495</v>
@@ -23411,7 +23183,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.564272082836379</v>
+        <v>1.547132942667532</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.214378894513179</v>
@@ -23500,7 +23272,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.55575621800398</v>
+        <v>1.539333518206671</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.866070104579919</v>
@@ -23589,7 +23361,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.577520125734914</v>
+        <v>1.551923249976325</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.808994543207051</v>
@@ -23678,7 +23450,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.586991301751143</v>
+        <v>1.55790857224934</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.051618787417625</v>
@@ -23767,7 +23539,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.57956111637137</v>
+        <v>1.551617612531353</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.042947396447608</v>
@@ -23856,7 +23628,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.581215525365799</v>
+        <v>1.557305120996574</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.249881367708755</v>
@@ -23945,7 +23717,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596508899090051</v>
+        <v>1.566945774563832</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.22571572362707</v>
@@ -24034,7 +23806,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.540481100836703</v>
+        <v>1.506524795525314</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.229150498522557</v>
@@ -24123,7 +23895,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.545991852415709</v>
+        <v>1.518752443658205</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.235662657958998</v>
@@ -24212,7 +23984,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.537340978724917</v>
+        <v>1.506217810551754</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.193618581382819</v>
@@ -24301,7 +24073,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.533719306419068</v>
+        <v>1.499899167027501</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.227443141807188</v>
@@ -24390,7 +24162,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.537035611543387</v>
+        <v>1.501540964476219</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.158710307173617</v>
@@ -24479,7 +24251,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.525976042965556</v>
+        <v>1.489271352758541</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.23246073507819</v>
@@ -24568,7 +24340,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.524694318065964</v>
+        <v>1.489629164920367</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.201995873082547</v>
@@ -24657,7 +24429,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5192770403432</v>
+        <v>1.486052656590833</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.259457913831015</v>
@@ -24746,7 +24518,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.520524748681398</v>
+        <v>1.491084651716052</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.257256594230297</v>
@@ -24835,7 +24607,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.525705447971997</v>
+        <v>1.4974376943233</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.269035993984633</v>
@@ -24924,7 +24696,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.522305647705334</v>
+        <v>1.491293229743561</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.263223299850543</v>
@@ -25013,7 +24785,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51030805373187</v>
+        <v>1.484661021914351</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.222535979605608</v>
@@ -25102,7 +24874,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.514437138210496</v>
+        <v>1.486753971992304</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.163519511814936</v>
@@ -25191,7 +24963,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.510829498100078</v>
+        <v>1.479699048209679</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.265929911568029</v>
@@ -25280,7 +25052,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.511308979570225</v>
+        <v>1.476168378863037</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.194366859117037</v>
@@ -25369,7 +25141,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555322485981049</v>
+        <v>1.517417967282301</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.796379617920499</v>
@@ -25458,7 +25230,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.542162157032514</v>
+        <v>1.493110931447673</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.817579256609736</v>
@@ -25547,7 +25319,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.554575162641971</v>
+        <v>1.492975840784707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.940382157266996</v>
@@ -25636,7 +25408,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.548258574964353</v>
+        <v>1.484565951514482</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.826228322163042</v>
@@ -25725,7 +25497,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.544579710643101</v>
+        <v>1.477913540673562</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.989727594823457</v>
@@ -25814,7 +25586,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.534345178117181</v>
+        <v>1.471520405693091</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.084104269937681</v>
@@ -25903,7 +25675,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532572711621461</v>
+        <v>1.466833439511712</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.069141134556801</v>
@@ -25992,7 +25764,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532694911182325</v>
+        <v>1.460210342400227</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.159143708241632</v>
@@ -26081,7 +25853,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.523988030372438</v>
+        <v>1.449313828909053</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.092980226193469</v>
@@ -26170,7 +25942,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.513052549006096</v>
+        <v>1.438146872502034</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.129763808196383</v>
@@ -26259,7 +26031,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.52563129197952</v>
+        <v>1.453774064583023</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.877127290305469</v>
@@ -26348,7 +26120,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52980387626635</v>
+        <v>1.446915969320888</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.200264478456479</v>
@@ -26437,7 +26209,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.525594478385142</v>
+        <v>1.443153630865467</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.931114796361196</v>
@@ -26526,7 +26298,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.527708559989981</v>
+        <v>1.442549731103552</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.94555508608748</v>
@@ -26615,7 +26387,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.521085141833591</v>
+        <v>1.439343895944293</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.725641914862589</v>
@@ -26704,7 +26476,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.52474909895369</v>
+        <v>1.446394855731005</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.830602563631159</v>
@@ -26793,7 +26565,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529497182809983</v>
+        <v>1.451115884703112</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.768653152633115</v>
@@ -26882,7 +26654,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.520138887015963</v>
+        <v>1.448249773972192</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.620231895041131</v>
@@ -26971,7 +26743,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.520029832956707</v>
+        <v>1.4478324429951</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.916010518523606</v>
@@ -27060,7 +26832,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.507036242606711</v>
+        <v>1.438673132738763</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.776871952677779</v>
@@ -27149,7 +26921,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.506432043931248</v>
+        <v>1.439625520849998</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.903992018975006</v>
@@ -27238,7 +27010,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.502021605659892</v>
+        <v>1.434558326249732</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.770244832102226</v>
@@ -27327,7 +27099,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.505253496903142</v>
+        <v>1.44190589439623</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.913108748578024</v>
@@ -27416,7 +27188,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.512472303144745</v>
+        <v>1.446439760288972</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.427948451019796</v>
@@ -27505,7 +27277,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.515906742206354</v>
+        <v>1.448366772264909</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.572601579446643</v>
@@ -27594,7 +27366,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.505868137355815</v>
+        <v>1.436031837965709</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.843345655537457</v>
@@ -27683,7 +27455,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.508522856359023</v>
+        <v>1.445311759853885</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.722115814729756</v>
@@ -27772,7 +27544,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.511640605601087</v>
+        <v>1.452935638009745</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.811516242281423</v>
@@ -27861,7 +27633,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.508733331947244</v>
+        <v>1.454519417146017</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.704320091619516</v>
@@ -27950,7 +27722,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507222668610501</v>
+        <v>1.455034289377466</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.564502041768526</v>
@@ -28039,7 +27811,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.512399913442313</v>
+        <v>1.45754237729339</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.816315430746587</v>
@@ -28128,7 +27900,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.501041440130715</v>
+        <v>1.44640951762293</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.623978365806986</v>
@@ -28217,7 +27989,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.506944646120009</v>
+        <v>1.453528837467054</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.619451380403858</v>
@@ -28306,7 +28078,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.504899883120931</v>
+        <v>1.453156836962851</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.700666141695982</v>
@@ -28395,7 +28167,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.534605355104272</v>
+        <v>1.47385060230916</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.451749886284235</v>
@@ -28484,7 +28256,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.538672056603949</v>
+        <v>1.476660384476327</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.626371550757799</v>
@@ -28573,7 +28345,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.553078789970936</v>
+        <v>1.486663874484848</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.795291598042956</v>
@@ -28662,7 +28434,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.548777890066517</v>
+        <v>1.484275087915683</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.881895425655482</v>
@@ -28751,7 +28523,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.542122398681657</v>
+        <v>1.486331132411332</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.325516969250438</v>
@@ -28840,7 +28612,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.55229766854153</v>
+        <v>1.499696520935784</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.053071342743148</v>
@@ -28929,7 +28701,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.547678449513116</v>
+        <v>1.503504859836212</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.381091073099049</v>
@@ -29018,7 +28790,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.548560419951596</v>
+        <v>1.501518281042587</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.289208305651155</v>
@@ -29107,7 +28879,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.554007349941932</v>
+        <v>1.502092088196709</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.220644303531988</v>
@@ -29196,7 +28968,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.54497501343818</v>
+        <v>1.496073185290133</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.956382516222074</v>
@@ -29285,7 +29057,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.564633722057943</v>
+        <v>1.506242512424799</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.169028905422206</v>
@@ -29374,7 +29146,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.556942518350789</v>
+        <v>1.495879517262018</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.896080966818784</v>
@@ -29463,7 +29235,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.562821170796774</v>
+        <v>1.506683066014977</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.400759512495468</v>
@@ -29552,7 +29324,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.565305532469661</v>
+        <v>1.506885824387041</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.323199883900915</v>
@@ -29641,7 +29413,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.565178096193519</v>
+        <v>1.509105812248728</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.02331635374399</v>
@@ -29730,7 +29502,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.553554588923804</v>
+        <v>1.505107812582532</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.834239252824313</v>
@@ -29819,7 +29591,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.558613005248291</v>
+        <v>1.515478822558111</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.05418702492057</v>
@@ -29908,7 +29680,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.55576033101415</v>
+        <v>1.515105051192738</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.870807504341153</v>
@@ -29997,7 +29769,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.552378661873768</v>
+        <v>1.51031477477166</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.091046150520968</v>
@@ -30086,7 +29858,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.557620762360072</v>
+        <v>1.513389698054942</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.294559423189271</v>
@@ -30175,7 +29947,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.541097408620119</v>
+        <v>1.492528268912664</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.438689378740519</v>
@@ -30264,7 +30036,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.554738529339634</v>
+        <v>1.495889838268625</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.353348058093304</v>
@@ -30550,7 +30322,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.604392742053205</v>
+        <v>1.554804043569983</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.101610241227774</v>
@@ -30639,7 +30411,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.598550007485988</v>
+        <v>1.551295062140996</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.366644592205521</v>
@@ -30728,7 +30500,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.605208937554921</v>
+        <v>1.559977687021557</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.094489095791666</v>
@@ -30817,7 +30589,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611937834972681</v>
+        <v>1.56726779160182</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.141579282388776</v>
@@ -30906,7 +30678,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.614472203656958</v>
+        <v>1.568741504050681</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.793029172094605</v>
@@ -30995,7 +30767,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.626494574351514</v>
+        <v>1.586340278494204</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.713227018508168</v>
@@ -31084,7 +30856,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.641565242834905</v>
+        <v>1.603828008233321</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.897668135087621</v>
@@ -31173,7 +30945,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.652072035757703</v>
+        <v>1.616054536197875</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.733262345568144</v>
@@ -31262,7 +31034,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649710907209577</v>
+        <v>1.621513785206944</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.706231044802235</v>
@@ -31351,7 +31123,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.654340819250917</v>
+        <v>1.624040422429054</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.349812308728402</v>
@@ -31440,7 +31212,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.616968762674115</v>
+        <v>1.588500233475058</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.445967209183344</v>
@@ -31529,7 +31301,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.6155672332006</v>
+        <v>1.593545759198181</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.486772748603258</v>
@@ -31618,7 +31390,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620685577594222</v>
+        <v>1.596162838091615</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.652013856427634</v>
@@ -31707,7 +31479,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.60801314994733</v>
+        <v>1.584901709502827</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.435307899695272</v>
@@ -31796,7 +31568,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602689528936477</v>
+        <v>1.585228664815073</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.342875744453838</v>
@@ -31885,7 +31657,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.592988758980034</v>
+        <v>1.571802982598024</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.507612447348325</v>
@@ -31974,7 +31746,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596572751697902</v>
+        <v>1.577528070719564</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.554285276545164</v>
@@ -32063,7 +31835,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.593662041981681</v>
+        <v>1.57105584907966</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.582623689737144</v>
@@ -32152,7 +31924,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593447883730185</v>
+        <v>1.572414293018343</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.488735181130437</v>
@@ -32241,7 +32013,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.5840297302749</v>
+        <v>1.563195571318338</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.443669628198811</v>
@@ -32330,7 +32102,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.582473664931947</v>
+        <v>1.557539677181506</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.41273203703079</v>
@@ -32419,7 +32191,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.577063581628712</v>
+        <v>1.551889015321426</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.640671981371971</v>
@@ -32508,7 +32280,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568091776463324</v>
+        <v>1.543337429281302</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.617366152831239</v>
@@ -32597,7 +32369,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.563830962801509</v>
+        <v>1.536475797636607</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.535278577113359</v>
@@ -32686,7 +32458,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561097288664899</v>
+        <v>1.536008716658897</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.396748360090198</v>
@@ -32775,7 +32547,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591445528963925</v>
+        <v>1.565920714261372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.666545272533952</v>
@@ -32864,7 +32636,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594042988743005</v>
+        <v>1.559048564384316</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.193492674182379</v>
@@ -32953,7 +32725,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601965372705505</v>
+        <v>1.55817407097577</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.347564928402146</v>
@@ -33042,7 +32814,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.600273744293012</v>
+        <v>1.558802086312266</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.245505867316202</v>
@@ -33131,7 +32903,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609669731607784</v>
+        <v>1.565281178594284</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.437710112625636</v>
@@ -33220,7 +32992,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.604012128633411</v>
+        <v>1.56057926654802</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.457317065033935</v>
@@ -33309,7 +33081,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599279875314078</v>
+        <v>1.555799632707296</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.166145313037631</v>
@@ -33398,7 +33170,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.598649391909796</v>
+        <v>1.548589513673468</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.06024974169085</v>
@@ -33487,7 +33259,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.583706001288743</v>
+        <v>1.531440595046449</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.865494896711535</v>
@@ -33576,7 +33348,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573455913725594</v>
+        <v>1.517499660619298</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.948291385359283</v>
@@ -33665,7 +33437,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580313603601039</v>
+        <v>1.528112866178091</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.110179894603318</v>
@@ -33754,7 +33526,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576914833058943</v>
+        <v>1.515275073344143</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.11078744536596</v>
@@ -33843,7 +33615,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578020973514967</v>
+        <v>1.513456742993346</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.797067999206593</v>
@@ -33932,7 +33704,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.578770356058649</v>
+        <v>1.508183225674905</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.818566053083075</v>
@@ -34021,7 +33793,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.567577137025633</v>
+        <v>1.49982916041192</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.654661376682642</v>
@@ -34110,7 +33882,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.566055796114369</v>
+        <v>1.5021917437687</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.888116598847639</v>
@@ -34199,7 +33971,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5722731898363</v>
+        <v>1.509923642327912</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.713098857946552</v>
@@ -34288,7 +34060,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.556508431466838</v>
+        <v>1.498285313361941</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.723767026419084</v>
@@ -34377,7 +34149,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.558040724525591</v>
+        <v>1.496288180446055</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.778805425673181</v>
@@ -34466,7 +34238,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.53515956866446</v>
+        <v>1.4770317603054</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.744164970277916</v>
@@ -34555,7 +34327,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.533630804149536</v>
+        <v>1.476019585212144</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.850613057047469</v>
@@ -34644,7 +34416,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.527311618893822</v>
+        <v>1.468307247170113</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.74761005714605</v>
@@ -34733,7 +34505,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.527334612424803</v>
+        <v>1.473643050540857</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.877954836766236</v>
@@ -34822,7 +34594,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.532332784694726</v>
+        <v>1.477859458792345</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.420841177369515</v>
@@ -34911,7 +34683,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.525410660933533</v>
+        <v>1.474891645794175</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.669112401400727</v>
@@ -35000,7 +34772,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.520792764265875</v>
+        <v>1.466372132477125</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.867758806043564</v>
@@ -35089,7 +34861,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.524433458352914</v>
+        <v>1.472369574147216</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.727876118095057</v>
@@ -35178,7 +34950,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.527543598624669</v>
+        <v>1.480149975046073</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.900695830863479</v>
@@ -35267,7 +35039,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.52334199733227</v>
+        <v>1.480906844946525</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.722298301738586</v>
@@ -35356,7 +35128,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.526035677412398</v>
+        <v>1.484952372631216</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.658106672066198</v>
@@ -35445,7 +35217,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.525921399959653</v>
+        <v>1.480577693844581</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.816156931255191</v>
@@ -35534,7 +35306,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.519460170186076</v>
+        <v>1.468430168458519</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.793148379921129</v>
@@ -35623,7 +35395,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.525379555260292</v>
+        <v>1.47706733322189</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.775080509275863</v>
@@ -35712,7 +35484,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.527645339643632</v>
+        <v>1.479590833990471</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.762045412637921</v>
@@ -35801,7 +35573,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.555298111801142</v>
+        <v>1.502891786297068</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.561240691269865</v>
@@ -35890,7 +35662,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.552463369918372</v>
+        <v>1.49839982087593</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.603281923985126</v>
@@ -35979,7 +35751,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.562429691019332</v>
+        <v>1.503625002840612</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.736708675479648</v>
@@ -36068,7 +35840,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.559098015022336</v>
+        <v>1.498234818574541</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.264634223170777</v>
@@ -36157,7 +35929,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.559907857147087</v>
+        <v>1.506501184319298</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.307746803169464</v>
@@ -36246,7 +36018,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.5787539532466</v>
+        <v>1.523426946088008</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.285269011366287</v>
@@ -36335,7 +36107,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.572613751424399</v>
+        <v>1.525981613205487</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.349744196532583</v>
@@ -36424,7 +36196,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.571941678799569</v>
+        <v>1.52813734820731</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.365653920863323</v>
@@ -36513,7 +36285,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.578489865121976</v>
+        <v>1.528961718707418</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.400743107272069</v>
@@ -36602,7 +36374,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.569714666296141</v>
+        <v>1.525427033292647</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.4206134359009</v>
@@ -36691,7 +36463,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.581392722427687</v>
+        <v>1.531715038832482</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.428612437510836</v>
@@ -36780,7 +36552,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.574205143064627</v>
+        <v>1.524533426949166</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.254049375506453</v>
@@ -36869,7 +36641,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.58057297987189</v>
+        <v>1.537169167632626</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.363295200096935</v>
@@ -36958,7 +36730,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.57977753995986</v>
+        <v>1.534168252003236</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.375690268195545</v>
@@ -37047,7 +36819,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.578661462387955</v>
+        <v>1.535221993086042</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.233846710905</v>
@@ -37136,7 +36908,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.567281198513554</v>
+        <v>1.526173994623733</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.499646828200819</v>
@@ -37225,7 +36997,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.568450743641984</v>
+        <v>1.533257387746802</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.409076230299517</v>
@@ -37314,7 +37086,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.561474927420324</v>
+        <v>1.527011966747627</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.367740732748098</v>
@@ -37403,7 +37175,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.567790818182534</v>
+        <v>1.531536700194236</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.431378483042146</v>
@@ -37492,7 +37264,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.568955113626388</v>
+        <v>1.530447357093203</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.41794773520739</v>
@@ -37581,7 +37353,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.559944544902938</v>
+        <v>1.518231888035009</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.278202839401786</v>
@@ -37670,7 +37442,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.576655881787608</v>
+        <v>1.526204095498015</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.243905555810827</v>
@@ -37956,7 +37728,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.5562895797545</v>
+        <v>1.544711081896576</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.561785925706609</v>
@@ -38045,7 +37817,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.550875182602897</v>
+        <v>1.535359335672262</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.301875851574149</v>
@@ -38134,7 +37906,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.562460732814138</v>
+        <v>1.545047534867853</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.509083452799017</v>
@@ -38223,7 +37995,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.56199101985903</v>
+        <v>1.545635111416933</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.509590933321828</v>
@@ -38312,7 +38084,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.55896860308166</v>
+        <v>1.542357545115924</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.444220590475328</v>
@@ -38401,7 +38173,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.560696803629406</v>
+        <v>1.540950914428308</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.386195825150596</v>
@@ -38490,7 +38262,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.59145438281815</v>
+        <v>1.57108001354432</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.10674827371482</v>
@@ -38579,7 +38351,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.587896732233705</v>
+        <v>1.571776109497018</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.094273298318019</v>
@@ -38668,7 +38440,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599310130214406</v>
+        <v>1.587008192741427</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.888390999856944</v>
@@ -38757,7 +38529,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.613488475699502</v>
+        <v>1.605907165413756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.836093391223971</v>
@@ -38846,7 +38618,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.565434781420344</v>
+        <v>1.553345088558279</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.396451759092398</v>
@@ -38935,7 +38707,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.563657851811499</v>
+        <v>1.547635117417683</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.439467298152326</v>
@@ -39024,7 +38796,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.559346567266249</v>
+        <v>1.53672994498427</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.259926172573092</v>
@@ -39113,7 +38885,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569575399000803</v>
+        <v>1.54654319304904</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.428323573702543</v>
@@ -39202,7 +38974,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.577836785795071</v>
+        <v>1.558061205804708</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.458192706697766</v>
@@ -39291,7 +39063,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589176524894369</v>
+        <v>1.563042514925541</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.406030447730293</v>
@@ -39380,7 +39152,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607030898559487</v>
+        <v>1.580111922595521</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.403791207170658</v>
@@ -39469,7 +39241,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604542407830423</v>
+        <v>1.573743075314362</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.383420771937701</v>
@@ -39558,7 +39330,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.607749059396849</v>
+        <v>1.578563018332596</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.361974331106263</v>
@@ -39647,7 +39419,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600872726202089</v>
+        <v>1.574438574544846</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.450749333255497</v>
@@ -39736,7 +39508,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595936345702124</v>
+        <v>1.572834716016436</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.482619314506411</v>
@@ -39825,7 +39597,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576940603557846</v>
+        <v>1.558021021142506</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.475170672409338</v>
@@ -39914,7 +39686,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568910967061179</v>
+        <v>1.550121015696989</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.45997383993328</v>
@@ -40003,7 +39775,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564736767609425</v>
+        <v>1.544066218995631</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.372150817915746</v>
@@ -40092,7 +39864,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559631871827477</v>
+        <v>1.53222911236836</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.445719117665852</v>
@@ -40181,7 +39953,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595047278962451</v>
+        <v>1.565011182937704</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.88302665099893</v>
@@ -40270,7 +40042,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58403460127745</v>
+        <v>1.549533833502568</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.09989162348368</v>
@@ -40359,7 +40131,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.58017956182755</v>
+        <v>1.53153681920954</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.957319791873271</v>
@@ -40448,7 +40220,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.569144396800681</v>
+        <v>1.522125062658603</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.928502502783864</v>
@@ -40537,7 +40309,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.5579347476943</v>
+        <v>1.506917842645784</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.17450648424122</v>
@@ -40626,7 +40398,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.544316084768802</v>
+        <v>1.496514858331913</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.947612612165051</v>
@@ -40715,7 +40487,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.539549749885617</v>
+        <v>1.49134749358853</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.06562587146042</v>
@@ -40804,7 +40576,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.52884103783595</v>
+        <v>1.478803314764302</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.29521173971189</v>
@@ -40893,7 +40665,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.522077583141827</v>
+        <v>1.474555195139063</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.261769373489408</v>
@@ -40982,7 +40754,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.519685213749708</v>
+        <v>1.466038393038102</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.311434838545749</v>
@@ -41071,7 +40843,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524267384012489</v>
+        <v>1.471865803273489</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.37918141975957</v>
@@ -41160,7 +40932,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5355443762867</v>
+        <v>1.470143068867796</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.334257792393437</v>
@@ -41249,7 +41021,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535547808115883</v>
+        <v>1.468011007316049</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.089295898709639</v>
@@ -41338,7 +41110,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.538223002828907</v>
+        <v>1.467701901409182</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.142554186691046</v>
@@ -41427,7 +41199,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.532558696676009</v>
+        <v>1.464065961378842</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.871846536871044</v>
@@ -41516,7 +41288,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.540239831895454</v>
+        <v>1.473081811605444</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.678027754178564</v>
@@ -41605,7 +41377,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537067802718654</v>
+        <v>1.473488787639649</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.670821883741807</v>
@@ -41694,7 +41466,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.531935117420126</v>
+        <v>1.470726297315377</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.136256438170434</v>
@@ -41783,7 +41555,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.528110261752914</v>
+        <v>1.465315311247705</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.838340544802993</v>
@@ -41872,7 +41644,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.509091072804929</v>
+        <v>1.448576143731663</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.944587316076952</v>
@@ -41961,7 +41733,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.497773512731797</v>
+        <v>1.440945707468825</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.90845793189002</v>
@@ -42050,7 +41822,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.498354874949438</v>
+        <v>1.438124240786539</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.732208633591803</v>
@@ -42139,7 +41911,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.496852259727694</v>
+        <v>1.440574899400547</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.826750734276076</v>
@@ -42228,7 +42000,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.502132041235315</v>
+        <v>1.4422830511749</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.473795338525736</v>
@@ -42317,7 +42089,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.50742596485734</v>
+        <v>1.450340615952537</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.664762623577636</v>
@@ -42406,7 +42178,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.499582788957694</v>
+        <v>1.444627720239122</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.816646689750801</v>
@@ -42495,7 +42267,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.499398711460764</v>
+        <v>1.451184570201968</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.783502303861872</v>
@@ -42584,7 +42356,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.50361434019787</v>
+        <v>1.461261145292815</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.691302843205564</v>
@@ -42673,7 +42445,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.500973859234587</v>
+        <v>1.461709176945559</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.77693039901043</v>
@@ -42762,7 +42534,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.504530660401836</v>
+        <v>1.466098914460993</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.619444641418287</v>
@@ -42851,7 +42623,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.509180825800001</v>
+        <v>1.464266521817642</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.726490933105015</v>
@@ -42940,7 +42712,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.512200447500367</v>
+        <v>1.465075826037386</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.724888506380114</v>
@@ -43029,7 +42801,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.514964239947205</v>
+        <v>1.468703200753907</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.598438210125519</v>
@@ -43118,7 +42890,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.523760973814225</v>
+        <v>1.476083739720191</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.697082349228921</v>
@@ -43207,7 +42979,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.560494764404572</v>
+        <v>1.50813414757825</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.486423826112195</v>
@@ -43296,7 +43068,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.577581844416068</v>
+        <v>1.517742605717498</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.576218561388733</v>
@@ -43385,7 +43157,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.582450025365325</v>
+        <v>1.516315219684093</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.78834013442463</v>
@@ -43474,7 +43246,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.58542099001738</v>
+        <v>1.522624618916133</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.045590223787301</v>
@@ -43563,7 +43335,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.578836435937901</v>
+        <v>1.519871375408574</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.355002507844592</v>
@@ -43652,7 +43424,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.576717282419601</v>
+        <v>1.517063384286995</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.463603137727998</v>
@@ -43741,7 +43513,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.574040547396101</v>
+        <v>1.516117816131336</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.226377927937505</v>
@@ -43830,7 +43602,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.574443859334832</v>
+        <v>1.517996354637926</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.517386232588131</v>
@@ -43919,7 +43691,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.575740789260779</v>
+        <v>1.513697991681362</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.520656550278373</v>
@@ -44008,7 +43780,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.570881909380945</v>
+        <v>1.512000336169671</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.901381966748553</v>
@@ -44097,7 +43869,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.572875978908545</v>
+        <v>1.514365559395009</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.260610653625416</v>
@@ -44186,7 +43958,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.570286744553966</v>
+        <v>1.511635148882382</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.024138821977224</v>
@@ -44275,7 +44047,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.573882213654556</v>
+        <v>1.519325960931629</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.236041945324125</v>
@@ -44364,7 +44136,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.571878756020265</v>
+        <v>1.518750948896136</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.550490681377922</v>
@@ -44453,7 +44225,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.575149693652036</v>
+        <v>1.52272432430968</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.016538581664531</v>
@@ -44542,7 +44314,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.570576125537689</v>
+        <v>1.524231372909024</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.845879766532395</v>
@@ -44631,7 +44403,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.571306672139059</v>
+        <v>1.527178744099952</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.168203278589794</v>
@@ -44720,7 +44492,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.575086128554943</v>
+        <v>1.534644493252706</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.902491949395809</v>
@@ -44809,7 +44581,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.5790715623139</v>
+        <v>1.533430801288669</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.410554326795506</v>
@@ -44898,7 +44670,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.582532709884494</v>
+        <v>1.53604058858518</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.33241679248362</v>
@@ -44987,7 +44759,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.579224621690136</v>
+        <v>1.530269693839019</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.704938076531888</v>
@@ -45076,7 +44848,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.585966901912902</v>
+        <v>1.529791580747313</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.446943447785671</v>
@@ -45362,7 +45134,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.280220215868237</v>
+        <v>1.281936876712392</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.101776449484698</v>
@@ -45451,7 +45223,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.338719217714834</v>
+        <v>1.335809111932293</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.912534380387143</v>
@@ -45540,7 +45312,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.39481913806056</v>
+        <v>1.393764927465156</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.933708032707133</v>
@@ -45629,7 +45401,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.385371278873084</v>
+        <v>1.383612585358839</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.988594616414201</v>
@@ -45718,7 +45490,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.342661467717188</v>
+        <v>1.342723433283579</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.963247051747977</v>
@@ -45807,7 +45579,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.379495341744244</v>
+        <v>1.374009153125228</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.971009017167571</v>
@@ -45896,7 +45668,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.439065558483968</v>
+        <v>1.427887777348739</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.008650044968045</v>
@@ -45985,7 +45757,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.397706358723643</v>
+        <v>1.391480650436802</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.162426880673054</v>
@@ -46074,7 +45846,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.397385689021304</v>
+        <v>1.398753896926548</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.097431016938835</v>
@@ -46163,7 +45935,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.403299715575928</v>
+        <v>1.409392489629365</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.03751365223184</v>
@@ -46252,7 +46024,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.365054716114494</v>
+        <v>1.367907697347373</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.117367410861378</v>
@@ -46341,7 +46113,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.339495307895528</v>
+        <v>1.348813999767677</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.11524725452977</v>
@@ -46430,7 +46202,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.327363997975551</v>
+        <v>1.327671656581436</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.049119731446888</v>
@@ -46519,7 +46291,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.295798006815378</v>
+        <v>1.3047034478</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.196770581327565</v>
@@ -46608,7 +46380,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.321743266235622</v>
+        <v>1.329491013956517</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.098869886106525</v>
@@ -46697,7 +46469,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.325006547447853</v>
+        <v>1.331416753336311</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.042765007044427</v>
@@ -46786,7 +46558,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.316921238777646</v>
+        <v>1.322188353756549</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.048362088712676</v>
@@ -46875,7 +46647,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.283114745239408</v>
+        <v>1.289137586987737</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.083487704127228</v>
@@ -46964,7 +46736,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.287385311271209</v>
+        <v>1.293763524973508</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.086878169546339</v>
@@ -47053,7 +46825,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.321152714117108</v>
+        <v>1.326594469483158</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.07924045634298</v>
@@ -47142,7 +46914,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.329582807342116</v>
+        <v>1.326460046196384</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.125890840637443</v>
@@ -47231,7 +47003,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.291220539410156</v>
+        <v>1.296612219190997</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.098859196537406</v>
@@ -47320,7 +47092,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.317466382783478</v>
+        <v>1.319691244149405</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.033228076112501</v>
@@ -47409,7 +47181,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.316679817058115</v>
+        <v>1.316274946121966</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.073946028632883</v>
@@ -47498,7 +47270,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.317587187368851</v>
+        <v>1.311114209369617</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.149644666848624</v>
@@ -47587,7 +47359,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.356461050863602</v>
+        <v>1.343293750450846</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.036959493920175</v>
@@ -47676,7 +47448,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.352946063620008</v>
+        <v>1.336807470506261</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.135902316979015</v>
@@ -47765,7 +47537,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.399198785722707</v>
+        <v>1.372620123516953</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.12719291715226</v>
@@ -47854,7 +47626,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.376252343648668</v>
+        <v>1.352634283717526</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.260332892137747</v>
@@ -47943,7 +47715,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.359706907596862</v>
+        <v>1.33748117352214</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.232164098398355</v>
@@ -48032,7 +47804,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.358688605559878</v>
+        <v>1.337734089928492</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.247608456221209</v>
@@ -48121,7 +47893,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.374479171847472</v>
+        <v>1.349160802713332</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.981969560926551</v>
@@ -48210,7 +47982,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.403267204310962</v>
+        <v>1.370060039688371</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.224230225880695</v>
@@ -48299,7 +48071,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.39995631456071</v>
+        <v>1.365992290063921</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.234988294410144</v>
@@ -48388,7 +48160,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.380734199761342</v>
+        <v>1.348271052580919</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.276079225539369</v>
@@ -48477,7 +48249,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.401088089235002</v>
+        <v>1.36617178619869</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.044662168898789</v>
@@ -48566,7 +48338,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.395259988969215</v>
+        <v>1.360496666688907</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.307371851471355</v>
@@ -48655,7 +48427,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.396254200105777</v>
+        <v>1.361798627913676</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.346340249995327</v>
@@ -48744,7 +48516,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.402945824065611</v>
+        <v>1.364095690408312</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.386093482637472</v>
@@ -48833,7 +48605,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.40217376535354</v>
+        <v>1.363839117907659</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.446614631017084</v>
@@ -48922,7 +48694,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.411422776998453</v>
+        <v>1.369801043449103</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.267393528641845</v>
@@ -49011,7 +48783,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.393461249699984</v>
+        <v>1.36018851806607</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.481122416057823</v>
@@ -49100,7 +48872,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.39777917100151</v>
+        <v>1.365475429059634</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.184144555185721</v>
@@ -49189,7 +48961,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.407099275274128</v>
+        <v>1.371893730877234</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.193189504443211</v>
@@ -49278,7 +49050,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.404845338317984</v>
+        <v>1.365189313861324</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.25548485434159</v>
@@ -49367,7 +49139,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.386616818764645</v>
+        <v>1.356575955162783</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.295008823813878</v>
@@ -49456,7 +49228,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.386156359690685</v>
+        <v>1.355457836460541</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.336541711308334</v>
@@ -49545,7 +49317,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.386492497328956</v>
+        <v>1.359439663062638</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.305528296753018</v>
@@ -49634,7 +49406,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.382787312072618</v>
+        <v>1.356059530576364</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.381360908765292</v>
@@ -49723,7 +49495,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.390611833451213</v>
+        <v>1.36381599993808</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.363903234664712</v>
@@ -49812,7 +49584,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.38447165819274</v>
+        <v>1.356397805375628</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.202393379827563</v>
@@ -49901,7 +49673,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.404188920911493</v>
+        <v>1.375559305458312</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.193155935029391</v>
@@ -49990,7 +49762,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.382155067699584</v>
+        <v>1.360323572559826</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.20128786193454</v>
@@ -50079,7 +49851,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.374396006550075</v>
+        <v>1.357757004579429</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.225824458830107</v>
@@ -50168,7 +49940,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.357588440223856</v>
+        <v>1.346515220821816</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.249072753556385</v>
@@ -50257,7 +50029,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.387718464665115</v>
+        <v>1.370651829697626</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.098573292503803</v>
@@ -50346,7 +50118,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.361664080435307</v>
+        <v>1.347482760910529</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.230277845582589</v>
@@ -50435,7 +50207,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.362986957202564</v>
+        <v>1.34932384743843</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.223360949186617</v>
@@ -50524,7 +50296,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.361532853277256</v>
+        <v>1.345286592223879</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.180582386908541</v>
@@ -50613,7 +50385,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.405532589656936</v>
+        <v>1.384815256751408</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.174184120682507</v>
@@ -50702,7 +50474,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.412276043689336</v>
+        <v>1.387107656306852</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.422576577770648</v>
@@ -50791,7 +50563,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.410474267249307</v>
+        <v>1.382063334044046</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.269284650392576</v>
@@ -50880,7 +50652,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.413299016532448</v>
+        <v>1.384002807734586</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.315523018958802</v>
@@ -50969,7 +50741,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.408277353770002</v>
+        <v>1.378093681260566</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.306879805999717</v>
@@ -51058,7 +50830,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.409563856242906</v>
+        <v>1.379380428037431</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.274832354204583</v>
@@ -51147,7 +50919,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.404464437820112</v>
+        <v>1.377500185924756</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.264224637794845</v>
@@ -51236,7 +51008,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.406492765129307</v>
+        <v>1.377458925408658</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.322168560146955</v>
@@ -51325,7 +51097,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.408172778627899</v>
+        <v>1.378143080729654</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.249099154400526</v>
@@ -51414,7 +51186,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.403555218807586</v>
+        <v>1.375351419597962</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.170957686829778</v>
@@ -51503,7 +51275,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.424813265523778</v>
+        <v>1.386998946685357</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.17044600838624</v>
@@ -51592,7 +51364,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.424622245246294</v>
+        <v>1.385966434149801</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.302610152473805</v>
@@ -51681,7 +51453,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.429754419322893</v>
+        <v>1.391706473400661</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.197160721426944</v>
@@ -51770,7 +51542,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.427292792946819</v>
+        <v>1.393562484320616</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.199529140059901</v>
@@ -51859,7 +51631,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.425605629166595</v>
+        <v>1.392914186591133</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.283907102986707</v>
@@ -51948,7 +51720,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.384459869806287</v>
+        <v>1.361184168830959</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.083451536823399</v>
@@ -52037,7 +51809,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.384505778838063</v>
+        <v>1.363070566603658</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.128903282461829</v>
@@ -52126,7 +51898,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.389931755744043</v>
+        <v>1.36958206997961</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.155022119055115</v>
@@ -52215,7 +51987,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.396173664839388</v>
+        <v>1.372747034489659</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.068930259513786</v>
@@ -52304,7 +52076,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.413256586436709</v>
+        <v>1.396074327005221</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.183561459544084</v>
@@ -52393,7 +52165,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.382775332361198</v>
+        <v>1.374231805160482</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.208257589017864</v>
@@ -52482,7 +52254,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.391985382905689</v>
+        <v>1.377637187357388</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.22302236749039</v>
